--- a/CNIntelligibility/intelligibility_difflib.xlsx
+++ b/CNIntelligibility/intelligibility_difflib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>i66.1_intelligibility_difflib</t>
+          <t>i70_intelligibility_difflib</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>i70_intelligibility_difflib</t>
+          <t>s58_intelligibility_difflib</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>s58_intelligibility_difflib</t>
+          <t>s62_intelligibility_difflib</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>s62_intelligibility_difflib</t>
+          <t>s66_intelligibility_difflib</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>s66_intelligibility_difflib</t>
+          <t>s70_intelligibility_difflib</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>s70_intelligibility_difflib</t>
+          <t>v58_intelligibility_difflib</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v58_intelligibility_difflib</t>
+          <t>v62_intelligibility_difflib</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>v62_intelligibility_difflib</t>
+          <t>v66_intelligibility_difflib</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>v66_intelligibility_difflib</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>v70_intelligibility_difflib</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>空白_intelligibility_difflib</t>
         </is>
       </c>
     </row>
@@ -577,82 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.423636363636364</v>
+        <v>0.4236363636363636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295870932458299</v>
+        <v>0.2958709324582991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218770654329147</v>
+        <v>0.2187706543291473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.264683103136698</v>
+        <v>0.2646831031366981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.723020810984767</v>
+        <v>0.7230208109847672</v>
       </c>
       <c r="G2" t="n">
         <v>0.246031746031746</v>
       </c>
       <c r="H2" t="n">
-        <v>0.312558820453832</v>
+        <v>0.3125588204538324</v>
       </c>
       <c r="I2" t="n">
-        <v>0.292138913106655</v>
+        <v>0.2921389131066551</v>
       </c>
       <c r="J2" t="n">
-        <v>0.270454545454545</v>
+        <v>0.2704545454545454</v>
       </c>
       <c r="K2" t="n">
-        <v>0.282023239917977</v>
+        <v>0.2820232399179767</v>
       </c>
       <c r="L2" t="n">
-        <v>0.270500452215858</v>
+        <v>0.2705004522158577</v>
       </c>
       <c r="M2" t="n">
-        <v>0.253844198754607</v>
+        <v>0.2538441987546067</v>
       </c>
       <c r="N2" t="n">
-        <v>0.338308457711443</v>
+        <v>0.3383084577114428</v>
       </c>
       <c r="O2" t="n">
-        <v>0.28544061302682</v>
+        <v>0.2854406130268199</v>
       </c>
       <c r="P2" t="n">
-        <v>0.258434782608696</v>
+        <v>0.2584347826086957</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.258434782608696</v>
+        <v>0.1328160143949617</v>
       </c>
       <c r="R2" t="n">
-        <v>0.132816014394962</v>
+        <v>0.2887474367737526</v>
       </c>
       <c r="S2" t="n">
-        <v>0.288747436773753</v>
+        <v>0.2057777777777777</v>
       </c>
       <c r="T2" t="n">
-        <v>0.205777777777778</v>
+        <v>0.820217276099629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.820217276099629</v>
+        <v>0.3446428571428571</v>
       </c>
       <c r="V2" t="n">
-        <v>0.344642857142857</v>
+        <v>0.3214055678809132</v>
       </c>
       <c r="W2" t="n">
-        <v>0.321405567880913</v>
+        <v>0.2983018100467764</v>
       </c>
       <c r="X2" t="n">
-        <v>0.298301810046776</v>
+        <v>0.3664951400800457</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.366495140080046</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.28109756097561</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.185636363636364</v>
+        <v>0.2810975609756098</v>
       </c>
     </row>
     <row r="3">
@@ -662,82 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.90154486036839</v>
+        <v>0.9015448603683898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.356591817054691</v>
+        <v>0.3565918170546907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275210084033613</v>
+        <v>0.2752100840336134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.148953027730617</v>
+        <v>0.1489530277306168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5676390977443611</v>
+        <v>0.5676390977443608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.310802833530106</v>
+        <v>0.3108028335301063</v>
       </c>
       <c r="H3" t="n">
-        <v>0.279448621553885</v>
+        <v>0.2794486215538847</v>
       </c>
       <c r="I3" t="n">
-        <v>0.292880258899676</v>
+        <v>0.2928802588996764</v>
       </c>
       <c r="J3" t="n">
-        <v>0.181736526946108</v>
+        <v>0.1817365269461078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.204592592592593</v>
+        <v>0.2045925925925926</v>
       </c>
       <c r="L3" t="n">
-        <v>0.237636344382082</v>
+        <v>0.2376363443820819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.299405405405405</v>
+        <v>0.2994054054054054</v>
       </c>
       <c r="N3" t="n">
-        <v>0.763736263736264</v>
+        <v>0.7637362637362637</v>
       </c>
       <c r="O3" t="n">
-        <v>0.349674185463659</v>
+        <v>0.3496741854636591</v>
       </c>
       <c r="P3" t="n">
-        <v>0.296768707482993</v>
+        <v>0.2967687074829932</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.296768707482993</v>
+        <v>0.2660737892080279</v>
       </c>
       <c r="R3" t="n">
-        <v>0.266073789208028</v>
+        <v>0.3059701492537313</v>
       </c>
       <c r="S3" t="n">
-        <v>0.305970149253731</v>
+        <v>0.2575565754075012</v>
       </c>
       <c r="T3" t="n">
-        <v>0.257556575407501</v>
+        <v>0.2224593742420567</v>
       </c>
       <c r="U3" t="n">
-        <v>0.222459374242057</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="V3" t="n">
-        <v>0.137931034482759</v>
+        <v>0.3002898239587805</v>
       </c>
       <c r="W3" t="n">
-        <v>0.300289823958781</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="X3" t="n">
-        <v>0.272727272727273</v>
+        <v>0.582651452593649</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.582651452593649</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.436397684712291</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.214696685428393</v>
+        <v>0.4363976847122914</v>
       </c>
     </row>
     <row r="4">
@@ -747,82 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.332184225041368</v>
+        <v>0.3321842250413679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.382409274193548</v>
+        <v>0.3824092741935484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.285119047619048</v>
+        <v>0.2851190476190476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.264074378467228</v>
+        <v>0.2640743784672282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.656165442597603</v>
+        <v>0.6561654425976033</v>
       </c>
       <c r="G4" t="n">
-        <v>0.113207547169811</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="H4" t="n">
-        <v>0.352332824068633</v>
+        <v>0.3523328240686332</v>
       </c>
       <c r="I4" t="n">
         <v>0.0626938413823659</v>
       </c>
       <c r="J4" t="n">
-        <v>0.293596059113301</v>
+        <v>0.2935960591133005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.27499693289167</v>
+        <v>0.2749969328916697</v>
       </c>
       <c r="L4" t="n">
-        <v>0.272588522588523</v>
+        <v>0.2725885225885226</v>
       </c>
       <c r="M4" t="n">
-        <v>0.798360655737705</v>
+        <v>0.7983606557377049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.531722772277228</v>
+        <v>0.5317227722772278</v>
       </c>
       <c r="O4" t="n">
         <v>0.312070938215103</v>
       </c>
       <c r="P4" t="n">
-        <v>0.359749455337691</v>
+        <v>0.3597494553376906</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.359749455337691</v>
+        <v>0.2364589400116482</v>
       </c>
       <c r="R4" t="n">
-        <v>0.236458940011648</v>
+        <v>0.2658450704225352</v>
       </c>
       <c r="S4" t="n">
-        <v>0.265845070422535</v>
+        <v>0.3214812992125984</v>
       </c>
       <c r="T4" t="n">
-        <v>0.321481299212598</v>
+        <v>0.2515723270440251</v>
       </c>
       <c r="U4" t="n">
-        <v>0.251572327044025</v>
+        <v>0.2491531467284721</v>
       </c>
       <c r="V4" t="n">
-        <v>0.249153146728472</v>
+        <v>0.4315896448438168</v>
       </c>
       <c r="W4" t="n">
-        <v>0.431589644843817</v>
+        <v>0.2716972034715526</v>
       </c>
       <c r="X4" t="n">
-        <v>0.271697203471553</v>
+        <v>0.6206140350877193</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.620614035087719</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0.311391223155929</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.239887352790579</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.205703599812997</v>
+        <v>0.2057035998129967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.575068493150685</v>
+        <v>0.5750684931506849</v>
       </c>
       <c r="D5" t="n">
         <v>0.11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.232203620525385</v>
+        <v>0.2322036205253845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.755562784645413</v>
+        <v>0.7555627846454132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.267126498359338</v>
+        <v>0.2671264983593384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17709705753184</v>
+        <v>0.1770970575318401</v>
       </c>
       <c r="I5" t="n">
-        <v>0.243976777939042</v>
+        <v>0.2439767779390421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.268822393822394</v>
+        <v>0.2688223938223938</v>
       </c>
       <c r="K5" t="n">
-        <v>0.352194357366771</v>
+        <v>0.3521943573667712</v>
       </c>
       <c r="L5" t="n">
-        <v>0.384825059207292</v>
+        <v>0.3848250592072925</v>
       </c>
       <c r="M5" t="n">
-        <v>0.543996076782962</v>
+        <v>0.5439960767829621</v>
       </c>
       <c r="N5" t="n">
         <v>0.475807993880283</v>
       </c>
       <c r="O5" t="n">
-        <v>0.210464201416208</v>
+        <v>0.2104642014162077</v>
       </c>
       <c r="P5" t="n">
-        <v>0.267307692307692</v>
+        <v>0.2673076923076923</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.267307692307692</v>
+        <v>0.2044441085329907</v>
       </c>
       <c r="R5" t="n">
-        <v>0.204444108532991</v>
+        <v>0.3373914187944196</v>
       </c>
       <c r="S5" t="n">
-        <v>0.33739141879442</v>
+        <v>0.2126760563380281</v>
       </c>
       <c r="T5" t="n">
-        <v>0.212676056338028</v>
+        <v>0.1554564172958133</v>
       </c>
       <c r="U5" t="n">
-        <v>0.155456417295813</v>
+        <v>0.3826590730557737</v>
       </c>
       <c r="V5" t="n">
-        <v>0.382659073055774</v>
+        <v>0.2875039148136549</v>
       </c>
       <c r="W5" t="n">
-        <v>0.287503914813655</v>
+        <v>0.2854940175157271</v>
       </c>
       <c r="X5" t="n">
-        <v>0.285494017515727</v>
+        <v>0.1123527373527373</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.112352737352737</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.217049808429119</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.263079593354823</v>
+        <v>0.2170498084291187</v>
       </c>
     </row>
     <row r="6">
@@ -917,82 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.142105263157895</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.486930372426556</v>
+        <v>0.4869303724265557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255253288886243</v>
+        <v>0.2552532888862432</v>
       </c>
       <c r="E6" t="n">
-        <v>0.326911263751606</v>
+        <v>0.3269112637516055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.290457516339869</v>
+        <v>0.2904575163398692</v>
       </c>
       <c r="G6" t="n">
-        <v>0.288899385923477</v>
+        <v>0.2888993859234766</v>
       </c>
       <c r="H6" t="n">
-        <v>0.437727329737865</v>
+        <v>0.4377273297378653</v>
       </c>
       <c r="I6" t="n">
-        <v>0.198469108802624</v>
+        <v>0.1984691088026244</v>
       </c>
       <c r="J6" t="n">
-        <v>0.307790549169859</v>
+        <v>0.3077905491698595</v>
       </c>
       <c r="K6" t="n">
-        <v>0.381901680409143</v>
+        <v>0.3819016804091431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.298772746508675</v>
+        <v>0.2987727465086754</v>
       </c>
       <c r="M6" t="n">
-        <v>0.531139617029188</v>
+        <v>0.5311396170291875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.691493055555556</v>
+        <v>0.6914930555555556</v>
       </c>
       <c r="O6" t="n">
         <v>0.289091851276072</v>
       </c>
       <c r="P6" t="n">
-        <v>0.277647058823529</v>
+        <v>0.2776470588235294</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.277647058823529</v>
+        <v>0.3286264441591784</v>
       </c>
       <c r="R6" t="n">
-        <v>0.328626444159178</v>
+        <v>0.7454168107921135</v>
       </c>
       <c r="S6" t="n">
-        <v>0.745416810792114</v>
+        <v>0.3884248651045901</v>
       </c>
       <c r="T6" t="n">
-        <v>0.38842486510459</v>
+        <v>0.3155555555555556</v>
       </c>
       <c r="U6" t="n">
-        <v>0.315555555555556</v>
+        <v>0.337173100871731</v>
       </c>
       <c r="V6" t="n">
-        <v>0.337173100871731</v>
+        <v>0.2672062237279629</v>
       </c>
       <c r="W6" t="n">
-        <v>0.267206223727963</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X6" t="n">
-        <v>0.142857142857143</v>
+        <v>0.2367939078465394</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.236793907846539</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.310425354462052</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.306830907054871</v>
+        <v>0.3104253544620517</v>
       </c>
     </row>
     <row r="7">
@@ -1002,82 +962,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.33110119047619</v>
+        <v>0.3311011904761904</v>
       </c>
       <c r="C7" t="n">
         <v>0.451700385095189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.371763678333021</v>
+        <v>0.3717636783330214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259569892473118</v>
+        <v>0.2595698924731183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.362141148325359</v>
+        <v>0.3621411483253588</v>
       </c>
       <c r="H7" t="n">
-        <v>0.664130205030649</v>
+        <v>0.6641302050306489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.28272183190216</v>
+        <v>0.2827218319021597</v>
       </c>
       <c r="J7" t="n">
-        <v>0.275880244570947</v>
+        <v>0.2758802445709467</v>
       </c>
       <c r="K7" t="n">
-        <v>0.347524154589372</v>
+        <v>0.3475241545893719</v>
       </c>
       <c r="L7" t="n">
-        <v>0.327769049489395</v>
+        <v>0.3277690494893951</v>
       </c>
       <c r="M7" t="n">
-        <v>0.812738367658276</v>
+        <v>0.8127383676582761</v>
       </c>
       <c r="N7" t="n">
-        <v>0.259008097165992</v>
+        <v>0.2590080971659919</v>
       </c>
       <c r="O7" t="n">
-        <v>0.259083259083259</v>
+        <v>0.2590832590832591</v>
       </c>
       <c r="P7" t="n">
-        <v>0.26765429761454</v>
+        <v>0.2676542976145399</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.26765429761454</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="R7" t="n">
-        <v>0.137931034482759</v>
+        <v>0.3829095209934949</v>
       </c>
       <c r="S7" t="n">
-        <v>0.382909520993495</v>
+        <v>0.2938943372350522</v>
       </c>
       <c r="T7" t="n">
-        <v>0.293894337235052</v>
+        <v>0.3165699548678272</v>
       </c>
       <c r="U7" t="n">
-        <v>0.316569954867827</v>
+        <v>0.2711093088222042</v>
       </c>
       <c r="V7" t="n">
-        <v>0.271109308822204</v>
+        <v>0.2958879124523296</v>
       </c>
       <c r="W7" t="n">
-        <v>0.29588791245233</v>
+        <v>0.2506403567024001</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2506403567024</v>
+        <v>0.2273232960023733</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.227323296002373</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.235294117647059</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.255504819888381</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="8">
@@ -1087,82 +1041,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.263895761174336</v>
+        <v>0.2638957611743361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.730050019238168</v>
+        <v>0.7300500192381685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.334617180205415</v>
+        <v>0.3346171802054155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.267179769103903</v>
+        <v>0.2671797691039032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176220183486238</v>
+        <v>0.1762201834862385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.223684210526316</v>
+        <v>0.2236842105263157</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42483660130719</v>
+        <v>0.4248366013071896</v>
       </c>
       <c r="I8" t="n">
-        <v>0.250587097665423</v>
+        <v>0.2505870976654234</v>
       </c>
       <c r="J8" t="n">
-        <v>0.134615384615385</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K8" t="n">
-        <v>0.289783281733746</v>
+        <v>0.2897832817337461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.283303860890068</v>
+        <v>0.2833038608900677</v>
       </c>
       <c r="M8" t="n">
-        <v>0.299096433711818</v>
+        <v>0.2990964337118183</v>
       </c>
       <c r="N8" t="n">
-        <v>0.279436524862499</v>
+        <v>0.2794365248624986</v>
       </c>
       <c r="O8" t="n">
-        <v>0.401388888888889</v>
+        <v>0.4013888888888889</v>
       </c>
       <c r="P8" t="n">
-        <v>0.26795939614784</v>
+        <v>0.2679593961478397</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.26795939614784</v>
+        <v>0.315122500704027</v>
       </c>
       <c r="R8" t="n">
-        <v>0.315122500704027</v>
+        <v>0.5564948534303942</v>
       </c>
       <c r="S8" t="n">
-        <v>0.556494853430394</v>
+        <v>0.3171249720545495</v>
       </c>
       <c r="T8" t="n">
-        <v>0.317124972054549</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="U8" t="n">
-        <v>0.337837837837838</v>
+        <v>0.2984126984126984</v>
       </c>
       <c r="V8" t="n">
-        <v>0.298412698412698</v>
+        <v>0.3027385537013264</v>
       </c>
       <c r="W8" t="n">
-        <v>0.302738553701326</v>
+        <v>0.3856386588842133</v>
       </c>
       <c r="X8" t="n">
-        <v>0.385638658884213</v>
+        <v>0.2718065316246383</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.271806531624638</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.482410671089916</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.204861111111111</v>
+        <v>0.4824106710899163</v>
       </c>
     </row>
     <row r="9">
@@ -1172,82 +1120,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.370408825438027</v>
+        <v>0.3704088254380272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.302154195011338</v>
+        <v>0.3021541950113379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219367015098722</v>
+        <v>0.2193670150987224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.224961948249619</v>
+        <v>0.2249619482496194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.289232127096205</v>
+        <v>0.2892321270962047</v>
       </c>
       <c r="G9" t="n">
         <v>0.352549889135255</v>
       </c>
       <c r="H9" t="n">
-        <v>0.585491506544138</v>
+        <v>0.5854915065441382</v>
       </c>
       <c r="I9" t="n">
-        <v>0.26223544973545</v>
+        <v>0.2622354497354497</v>
       </c>
       <c r="J9" t="n">
         <v>0.270682302771855</v>
       </c>
       <c r="K9" t="n">
-        <v>0.236382322713258</v>
+        <v>0.2363823227132579</v>
       </c>
       <c r="L9" t="n">
-        <v>0.341690841276419</v>
+        <v>0.3416908412764193</v>
       </c>
       <c r="M9" t="n">
-        <v>0.266008022582083</v>
+        <v>0.2660080225820829</v>
       </c>
       <c r="N9" t="n">
-        <v>0.173855670103093</v>
+        <v>0.1738556701030927</v>
       </c>
       <c r="O9" t="n">
-        <v>0.620349187236604</v>
+        <v>0.6203491872366045</v>
       </c>
       <c r="P9" t="n">
-        <v>0.207885304659498</v>
+        <v>0.2078853046594982</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.207885304659498</v>
+        <v>0.3802546659689517</v>
       </c>
       <c r="R9" t="n">
-        <v>0.380254665968952</v>
+        <v>0.6972370766488414</v>
       </c>
       <c r="S9" t="n">
-        <v>0.697237076648841</v>
+        <v>0.2700520485786734</v>
       </c>
       <c r="T9" t="n">
-        <v>0.270052048578673</v>
+        <v>0.3041847041847041</v>
       </c>
       <c r="U9" t="n">
-        <v>0.304184704184704</v>
+        <v>0.3346291401026279</v>
       </c>
       <c r="V9" t="n">
-        <v>0.334629140102628</v>
+        <v>0.2842592592592592</v>
       </c>
       <c r="W9" t="n">
-        <v>0.284259259259259</v>
+        <v>0.2873173582700175</v>
       </c>
       <c r="X9" t="n">
-        <v>0.287317358270017</v>
+        <v>0.2005461165048543</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.200546116504854</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.347902278115658</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.228410740203193</v>
+        <v>0.3479022781156582</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.295605306799337</v>
+        <v>0.2956053067993366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248148148148148</v>
+        <v>0.2481481481481481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.293393393393393</v>
+        <v>0.2933933933933934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.231796116504854</v>
+        <v>0.2317961165048543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.219548872180451</v>
+        <v>0.2195488721804511</v>
       </c>
       <c r="G10" t="n">
-        <v>0.300194071983063</v>
+        <v>0.3001940719830628</v>
       </c>
       <c r="H10" t="n">
         <v>0.64275875639512</v>
       </c>
       <c r="I10" t="n">
-        <v>0.231088187702265</v>
+        <v>0.2310881877022653</v>
       </c>
       <c r="J10" t="n">
-        <v>0.332512315270936</v>
+        <v>0.3325123152709359</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2455724445684</v>
+        <v>0.2455724445684005</v>
       </c>
       <c r="L10" t="n">
-        <v>0.557823129251701</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="M10" t="n">
-        <v>0.292406613594611</v>
+        <v>0.2924066135946112</v>
       </c>
       <c r="N10" t="n">
-        <v>0.244590461085306</v>
+        <v>0.2445904610853064</v>
       </c>
       <c r="O10" t="n">
-        <v>0.498409669211196</v>
+        <v>0.4984096692111959</v>
       </c>
       <c r="P10" t="n">
-        <v>0.205474315710536</v>
+        <v>0.2054743157105361</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.205474315710536</v>
+        <v>0.3115079365079365</v>
       </c>
       <c r="R10" t="n">
-        <v>0.311507936507937</v>
+        <v>0.1995967741935483</v>
       </c>
       <c r="S10" t="n">
-        <v>0.199596774193548</v>
+        <v>0.0729166666666666</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0729166666666666</v>
+        <v>0.2532773604359994</v>
       </c>
       <c r="U10" t="n">
-        <v>0.253277360435999</v>
+        <v>0.2557099951107076</v>
       </c>
       <c r="V10" t="n">
-        <v>0.255709995110708</v>
+        <v>0.246451033243486</v>
       </c>
       <c r="W10" t="n">
-        <v>0.246451033243486</v>
+        <v>0.2863123993558776</v>
       </c>
       <c r="X10" t="n">
-        <v>0.286312399355878</v>
+        <v>0.2783115991763898</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.27831159917639</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.512634408602151</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.223260643821391</v>
+        <v>0.5126344086021506</v>
       </c>
     </row>
     <row r="11">
@@ -1342,37 +1278,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2241330502477</v>
+        <v>0.2241330502476999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.272337854906914</v>
+        <v>0.2723378549069141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144444444444444</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.246474199435872</v>
+        <v>0.2464741994358719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.47643842749284</v>
+        <v>0.4764384274928404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.303846153846154</v>
+        <v>0.3038461538461539</v>
       </c>
       <c r="H11" t="n">
-        <v>0.246376811594203</v>
+        <v>0.2463768115942028</v>
       </c>
       <c r="I11" t="n">
-        <v>0.284893267651888</v>
+        <v>0.2848932676518883</v>
       </c>
       <c r="J11" t="n">
-        <v>0.366383996520983</v>
+        <v>0.3663839965209828</v>
       </c>
       <c r="K11" t="n">
         <v>0.280103995621237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.491003013344813</v>
+        <v>0.4910030133448128</v>
       </c>
       <c r="M11" t="n">
         <v>0.355191256830601</v>
@@ -1381,43 +1317,37 @@
         <v>0.192986641221374</v>
       </c>
       <c r="O11" t="n">
-        <v>0.418413173652695</v>
+        <v>0.4184131736526946</v>
       </c>
       <c r="P11" t="n">
-        <v>0.335668103448276</v>
+        <v>0.3356681034482758</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.335668103448276</v>
+        <v>0.2023291925465838</v>
       </c>
       <c r="R11" t="n">
-        <v>0.202329192546584</v>
+        <v>0.2198262952979934</v>
       </c>
       <c r="S11" t="n">
-        <v>0.219826295297993</v>
+        <v>0.3641188959660297</v>
       </c>
       <c r="T11" t="n">
-        <v>0.36411889596603</v>
+        <v>0.2644273453684522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.264427345368452</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="V11" t="n">
-        <v>0.686868686868687</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="W11" t="n">
-        <v>0.140495867768595</v>
+        <v>0.2560640732265446</v>
       </c>
       <c r="X11" t="n">
-        <v>0.256064073226545</v>
+        <v>0.2646831031366981</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.264683103136698</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.570850574712644</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.244047619047619</v>
+        <v>0.5708505747126438</v>
       </c>
     </row>
     <row r="12">
@@ -1427,80 +1357,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.328176665092111</v>
+        <v>0.3281766650921114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.384234234234234</v>
+        <v>0.3842342342342342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271349413298566</v>
+        <v>0.2713494132985658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.254029658284977</v>
+        <v>0.2540296582849775</v>
       </c>
       <c r="F12" t="n">
-        <v>0.302531897926635</v>
+        <v>0.3025318979266347</v>
       </c>
       <c r="G12" t="n">
-        <v>0.656215005599104</v>
+        <v>0.6562150055991041</v>
       </c>
       <c r="H12" t="n">
-        <v>0.225047679593134</v>
+        <v>0.2250476795931341</v>
       </c>
       <c r="I12" t="n">
-        <v>0.343473193473193</v>
+        <v>0.3434731934731935</v>
       </c>
       <c r="J12" t="n">
-        <v>0.277085330776606</v>
+        <v>0.2770853307766059</v>
       </c>
       <c r="K12" t="n">
-        <v>0.235026292163653</v>
+        <v>0.2350262921636526</v>
       </c>
       <c r="L12" t="n">
-        <v>0.571378479070787</v>
+        <v>0.5713784790707868</v>
       </c>
       <c r="M12" t="n">
-        <v>0.361321776814734</v>
+        <v>0.3613217768147345</v>
       </c>
       <c r="N12" t="n">
         <v>0.450427823421736</v>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0.842821556595176</v>
+      </c>
       <c r="P12" t="n">
-        <v>0.275182582334298</v>
+        <v>0.2751825823342979</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.842821556595176</v>
+        <v>0.2662057044079516</v>
       </c>
       <c r="R12" t="n">
-        <v>0.266205704407952</v>
+        <v>0.2378955394586351</v>
       </c>
       <c r="S12" t="n">
-        <v>0.237895539458635</v>
+        <v>0.3812424997692236</v>
       </c>
       <c r="T12" t="n">
-        <v>0.381242499769224</v>
+        <v>0.279796648465449</v>
       </c>
       <c r="U12" t="n">
-        <v>0.279796648465449</v>
+        <v>0.5717580032555616</v>
       </c>
       <c r="V12" t="n">
-        <v>0.571758003255562</v>
+        <v>0.275743863979158</v>
       </c>
       <c r="W12" t="n">
-        <v>0.275743863979158</v>
+        <v>0.3309859154929577</v>
       </c>
       <c r="X12" t="n">
-        <v>0.330985915492958</v>
+        <v>0.2604032049625226</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.260403204962523</v>
-      </c>
-      <c r="Z12" t="n">
         <v>0.257451564828614</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.224671445639188</v>
       </c>
     </row>
     <row r="13">
@@ -1510,82 +1436,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.334258616701365</v>
+        <v>0.3342586167013648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234084880636605</v>
+        <v>0.2340848806366047</v>
       </c>
       <c r="D13" t="n">
-        <v>0.471997604073076</v>
+        <v>0.4719976040730758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.32748031496063</v>
+        <v>0.3274803149606299</v>
       </c>
       <c r="F13" t="n">
-        <v>0.27580716011421</v>
+        <v>0.2758071601142104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.461124929792185</v>
+        <v>0.4611249297921848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.208333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.274074074074074</v>
+        <v>0.2740740740740741</v>
       </c>
       <c r="J13" t="n">
-        <v>0.332097130242826</v>
+        <v>0.3320971302428256</v>
       </c>
       <c r="K13" t="n">
-        <v>0.257122507122507</v>
+        <v>0.2571225071225071</v>
       </c>
       <c r="L13" t="n">
-        <v>0.656002682763246</v>
+        <v>0.6560026827632461</v>
       </c>
       <c r="M13" t="n">
-        <v>0.296703296703297</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="N13" t="n">
-        <v>0.287155127537741</v>
+        <v>0.2871551275377407</v>
       </c>
       <c r="O13" t="n">
-        <v>0.226628214371545</v>
+        <v>0.2266282143715453</v>
       </c>
       <c r="P13" t="n">
-        <v>0.292427315753888</v>
+        <v>0.2924273157538878</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.292427315753888</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="R13" t="n">
-        <v>0.214814814814815</v>
+        <v>0.269753086419753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.269753086419753</v>
+        <v>0.3361511492014024</v>
       </c>
       <c r="T13" t="n">
-        <v>0.336151149201402</v>
+        <v>0.334104111443235</v>
       </c>
       <c r="U13" t="n">
-        <v>0.334104111443235</v>
+        <v>0.4234498834498834</v>
       </c>
       <c r="V13" t="n">
-        <v>0.423449883449883</v>
+        <v>0.2701614931830759</v>
       </c>
       <c r="W13" t="n">
-        <v>0.270161493183076</v>
+        <v>0.329213747645951</v>
       </c>
       <c r="X13" t="n">
-        <v>0.329213747645951</v>
+        <v>0.1953067571388182</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.195306757138818</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.265061266167461</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.232336655592469</v>
+        <v>0.2650612661674608</v>
       </c>
     </row>
     <row r="14">
@@ -1595,82 +1515,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.388888888888889</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336690647482014</v>
+        <v>0.3366906474820144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.320971867007673</v>
+        <v>0.3209718670076726</v>
       </c>
       <c r="E14" t="n">
-        <v>0.256181318681319</v>
+        <v>0.2561813186813186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.221132897603486</v>
+        <v>0.2211328976034858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.50261184598534</v>
+        <v>0.5026118459853399</v>
       </c>
       <c r="H14" t="n">
-        <v>0.343501326259947</v>
+        <v>0.3435013262599469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.240418118466899</v>
+        <v>0.2404181184668989</v>
       </c>
       <c r="J14" t="n">
-        <v>0.307086614173228</v>
+        <v>0.3070866141732283</v>
       </c>
       <c r="K14" t="n">
-        <v>0.241841491841492</v>
+        <v>0.2418414918414918</v>
       </c>
       <c r="L14" t="n">
-        <v>0.235460324935248</v>
+        <v>0.2354603249352484</v>
       </c>
       <c r="M14" t="n">
-        <v>0.179545454545455</v>
+        <v>0.1795454545454545</v>
       </c>
       <c r="N14" t="n">
-        <v>0.259605788423154</v>
+        <v>0.2596057884231537</v>
       </c>
       <c r="O14" t="n">
         <v>0.280927536231884</v>
       </c>
       <c r="P14" t="n">
-        <v>0.333803964159652</v>
+        <v>0.3338039641596524</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.333803964159652</v>
+        <v>0.2981691368788143</v>
       </c>
       <c r="R14" t="n">
-        <v>0.298169136878814</v>
+        <v>0.232</v>
       </c>
       <c r="S14" t="n">
-        <v>0.232</v>
+        <v>0.3288160833953835</v>
       </c>
       <c r="T14" t="n">
-        <v>0.328816083395383</v>
+        <v>0.3010132102090547</v>
       </c>
       <c r="U14" t="n">
-        <v>0.301013210209055</v>
+        <v>0.7210068924183398</v>
       </c>
       <c r="V14" t="n">
-        <v>0.72100689241834</v>
+        <v>0.3615448968209704</v>
       </c>
       <c r="W14" t="n">
-        <v>0.36154489682097</v>
+        <v>0.7143695014662756</v>
       </c>
       <c r="X14" t="n">
-        <v>0.714369501466276</v>
+        <v>0.2738326498309231</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.273832649830923</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.280901856763926</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.253076292042658</v>
+        <v>0.2809018567639257</v>
       </c>
     </row>
     <row r="15">
@@ -1680,82 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.274024477251523</v>
+        <v>0.2740244772515229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260026737967914</v>
+        <v>0.2600267379679144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39387367850366</v>
+        <v>0.3938736785036595</v>
       </c>
       <c r="E15" t="n">
-        <v>0.335328875758047</v>
+        <v>0.3353288757580469</v>
       </c>
       <c r="F15" t="n">
-        <v>0.316836058329651</v>
+        <v>0.3168360583296509</v>
       </c>
       <c r="G15" t="n">
-        <v>0.670046676323837</v>
+        <v>0.6700466763238371</v>
       </c>
       <c r="H15" t="n">
-        <v>0.208070757324489</v>
+        <v>0.2080707573244886</v>
       </c>
       <c r="I15" t="n">
-        <v>0.285403050108932</v>
+        <v>0.2854030501089324</v>
       </c>
       <c r="J15" t="n">
-        <v>0.319305694305694</v>
+        <v>0.3193056943056943</v>
       </c>
       <c r="K15" t="n">
-        <v>0.268388362209872</v>
+        <v>0.2683883622098725</v>
       </c>
       <c r="L15" t="n">
-        <v>0.26214196762142</v>
+        <v>0.2621419676214196</v>
       </c>
       <c r="M15" t="n">
-        <v>0.285700598802395</v>
+        <v>0.2857005988023952</v>
       </c>
       <c r="N15" t="n">
-        <v>0.263888888888889</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="O15" t="n">
         <v>0.141278816876903</v>
       </c>
       <c r="P15" t="n">
-        <v>0.280137580979096</v>
+        <v>0.2801375809790957</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.280137580979096</v>
+        <v>0.5169444444444444</v>
       </c>
       <c r="R15" t="n">
-        <v>0.516944444444444</v>
+        <v>0.4389306230667256</v>
       </c>
       <c r="S15" t="n">
-        <v>0.438930623066726</v>
+        <v>0.2914054054054054</v>
       </c>
       <c r="T15" t="n">
-        <v>0.291405405405405</v>
+        <v>0.2185271317829457</v>
       </c>
       <c r="U15" t="n">
-        <v>0.218527131782946</v>
+        <v>0.2917917917917918</v>
       </c>
       <c r="V15" t="n">
-        <v>0.291791791791792</v>
+        <v>0.3285010555946517</v>
       </c>
       <c r="W15" t="n">
-        <v>0.328501055594652</v>
+        <v>0.5552541573298738</v>
       </c>
       <c r="X15" t="n">
-        <v>0.555254157329874</v>
+        <v>0.2547575599582898</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.25475755995829</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.310525504700262</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.22374487704918</v>
+        <v>0.3105255047002619</v>
       </c>
     </row>
     <row r="16">
@@ -1765,82 +1673,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.309510567296997</v>
+        <v>0.3095105672969966</v>
       </c>
       <c r="C16" t="n">
-        <v>0.287413224081029</v>
+        <v>0.2874132240810287</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597002214273548</v>
+        <v>0.5970022142735479</v>
       </c>
       <c r="E16" t="n">
-        <v>0.273423423423423</v>
+        <v>0.2734234234234234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.233919902912621</v>
+        <v>0.2339199029126213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.280487804878049</v>
+        <v>0.2804878048780488</v>
       </c>
       <c r="H16" t="n">
-        <v>0.359490525007766</v>
+        <v>0.3594905250077663</v>
       </c>
       <c r="I16" t="n">
-        <v>0.251515151515152</v>
+        <v>0.2515151515151515</v>
       </c>
       <c r="J16" t="n">
-        <v>0.694500674763833</v>
+        <v>0.6945006747638327</v>
       </c>
       <c r="K16" t="n">
-        <v>0.378646616541353</v>
+        <v>0.3786466165413533</v>
       </c>
       <c r="L16" t="n">
-        <v>0.316581440187778</v>
+        <v>0.3165814401877777</v>
       </c>
       <c r="M16" t="n">
-        <v>0.27807486631016</v>
+        <v>0.2780748663101604</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25318957771788</v>
+        <v>0.2531895777178796</v>
       </c>
       <c r="O16" t="n">
-        <v>0.275942028985507</v>
+        <v>0.2759420289855072</v>
       </c>
       <c r="P16" t="n">
-        <v>0.288018433179723</v>
+        <v>0.2880184331797235</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.288018433179723</v>
+        <v>0.2181272509003601</v>
       </c>
       <c r="R16" t="n">
-        <v>0.21812725090036</v>
+        <v>0.290305230603738</v>
       </c>
       <c r="S16" t="n">
-        <v>0.290305230603738</v>
+        <v>0.2767778901247051</v>
       </c>
       <c r="T16" t="n">
-        <v>0.276777890124705</v>
+        <v>0.291383701188455</v>
       </c>
       <c r="U16" t="n">
-        <v>0.291383701188455</v>
+        <v>0.3012568482114083</v>
       </c>
       <c r="V16" t="n">
-        <v>0.301256848211408</v>
+        <v>0.3294148380355277</v>
       </c>
       <c r="W16" t="n">
-        <v>0.329414838035528</v>
+        <v>0.4128540305010893</v>
       </c>
       <c r="X16" t="n">
-        <v>0.412854030501089</v>
+        <v>0.2004384591293454</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.200438459129345</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.259259259259259</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.214594594594595</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="17">
@@ -1853,79 +1755,73 @@
         <v>0.332814391973707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244296095994592</v>
+        <v>0.2442960959945918</v>
       </c>
       <c r="D17" t="n">
-        <v>0.131400271587187</v>
+        <v>0.1314002715871874</v>
       </c>
       <c r="E17" t="n">
-        <v>0.252244632400781</v>
+        <v>0.2522446324007807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.290538847117794</v>
+        <v>0.2905388471177945</v>
       </c>
       <c r="G17" t="n">
-        <v>0.268031306441902</v>
+        <v>0.2680313064419025</v>
       </c>
       <c r="H17" t="n">
-        <v>0.231863538295577</v>
+        <v>0.2318635382955771</v>
       </c>
       <c r="I17" t="n">
-        <v>0.497151769971518</v>
+        <v>0.4971517699715176</v>
       </c>
       <c r="J17" t="n">
-        <v>0.435082140964494</v>
+        <v>0.4350821409644939</v>
       </c>
       <c r="K17" t="n">
-        <v>0.300469483568075</v>
+        <v>0.3004694835680751</v>
       </c>
       <c r="L17" t="n">
         <v>0.314818763326226</v>
       </c>
       <c r="M17" t="n">
-        <v>0.30241935483871</v>
+        <v>0.3024193548387097</v>
       </c>
       <c r="N17" t="n">
-        <v>0.201522118281275</v>
+        <v>0.2015221182812747</v>
       </c>
       <c r="O17" t="n">
-        <v>0.351333333333333</v>
+        <v>0.3513333333333333</v>
       </c>
       <c r="P17" t="n">
-        <v>0.361219512195122</v>
+        <v>0.3612195121951219</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.361219512195122</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="R17" t="n">
-        <v>0.290598290598291</v>
+        <v>0.2385714285714285</v>
       </c>
       <c r="S17" t="n">
-        <v>0.238571428571428</v>
+        <v>0.2557734204793028</v>
       </c>
       <c r="T17" t="n">
-        <v>0.255773420479303</v>
+        <v>0.3688594330750974</v>
       </c>
       <c r="U17" t="n">
-        <v>0.368859433075097</v>
+        <v>0.219750406945198</v>
       </c>
       <c r="V17" t="n">
-        <v>0.219750406945198</v>
+        <v>0.1494915013156958</v>
       </c>
       <c r="W17" t="n">
-        <v>0.149491501315696</v>
+        <v>0.8359375</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8359375</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.116504854368932</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.342857142857143</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.234077703087615</v>
+        <v>0.3428571428571428</v>
       </c>
     </row>
     <row r="18">
@@ -1938,79 +1834,73 @@
         <v>0.256625272052234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275826086956522</v>
+        <v>0.2758260869565218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.157054125998225</v>
+        <v>0.1570541259982253</v>
       </c>
       <c r="E18" t="n">
-        <v>0.18107476635514</v>
+        <v>0.1810747663551402</v>
       </c>
       <c r="F18" t="n">
-        <v>0.232068965517241</v>
+        <v>0.2320689655172413</v>
       </c>
       <c r="G18" t="n">
-        <v>0.155720338983051</v>
+        <v>0.1557203389830508</v>
       </c>
       <c r="H18" t="n">
-        <v>0.20203421174295</v>
+        <v>0.2020342117429496</v>
       </c>
       <c r="I18" t="n">
-        <v>0.354926846465715</v>
+        <v>0.3549268464657148</v>
       </c>
       <c r="J18" t="n">
-        <v>0.486297760210804</v>
+        <v>0.4862977602108037</v>
       </c>
       <c r="K18" t="n">
         <v>0.228440366972477</v>
       </c>
       <c r="L18" t="n">
-        <v>0.237150292778139</v>
+        <v>0.2371502927781392</v>
       </c>
       <c r="M18" t="n">
-        <v>0.19280701754386</v>
+        <v>0.1928070175438596</v>
       </c>
       <c r="N18" t="n">
-        <v>0.304489973844813</v>
+        <v>0.3044899738448126</v>
       </c>
       <c r="O18" t="n">
-        <v>0.317336152219873</v>
+        <v>0.3173361522198731</v>
       </c>
       <c r="P18" t="n">
-        <v>0.23393691588785</v>
+        <v>0.2339369158878504</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.23393691588785</v>
+        <v>0.3525014376078206</v>
       </c>
       <c r="R18" t="n">
-        <v>0.352501437607821</v>
+        <v>0.2284482758620689</v>
       </c>
       <c r="S18" t="n">
-        <v>0.228448275862069</v>
+        <v>0.5766324878575284</v>
       </c>
       <c r="T18" t="n">
-        <v>0.576632487857528</v>
+        <v>0.3692376325964112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.369237632596411</v>
+        <v>0.3197994987468672</v>
       </c>
       <c r="V18" t="n">
-        <v>0.319799498746867</v>
+        <v>0.4094822946937897</v>
       </c>
       <c r="W18" t="n">
-        <v>0.40948229469379</v>
+        <v>0.2348744292237443</v>
       </c>
       <c r="X18" t="n">
-        <v>0.234874429223744</v>
+        <v>0.307021539662914</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.307021539662914</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.230790568654646</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.304347826086956</v>
+        <v>0.2307905686546463</v>
       </c>
     </row>
     <row r="19">
@@ -2020,82 +1910,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.336192810457516</v>
+        <v>0.3361928104575163</v>
       </c>
       <c r="C19" t="n">
-        <v>0.182710435843407</v>
+        <v>0.1827104358434069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22696646226058</v>
+        <v>0.2269664622605799</v>
       </c>
       <c r="E19" t="n">
-        <v>0.217951318458418</v>
+        <v>0.2179513184584178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.281220657276995</v>
+        <v>0.2812206572769953</v>
       </c>
       <c r="G19" t="n">
         <v>0.261136712749616</v>
       </c>
       <c r="H19" t="n">
-        <v>0.223475355054302</v>
+        <v>0.2234753550543024</v>
       </c>
       <c r="I19" t="n">
-        <v>0.426581448705342</v>
+        <v>0.4265814487053425</v>
       </c>
       <c r="J19" t="n">
-        <v>0.73653617200084</v>
+        <v>0.7365361720008404</v>
       </c>
       <c r="K19" t="n">
-        <v>0.191201497617427</v>
+        <v>0.1912014976174268</v>
       </c>
       <c r="L19" t="n">
         <v>0.310416432820743</v>
       </c>
       <c r="M19" t="n">
-        <v>0.365609144813253</v>
+        <v>0.3656091448132526</v>
       </c>
       <c r="N19" t="n">
         <v>0.308317698561601</v>
       </c>
       <c r="O19" t="n">
-        <v>0.270912220309811</v>
+        <v>0.2709122203098106</v>
       </c>
       <c r="P19" t="n">
-        <v>0.293801344286781</v>
+        <v>0.2938013442867812</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.293801344286781</v>
+        <v>0.2092731829573934</v>
       </c>
       <c r="R19" t="n">
-        <v>0.209273182957393</v>
+        <v>0.3019582386670994</v>
       </c>
       <c r="S19" t="n">
-        <v>0.301958238667099</v>
+        <v>0.5073189522342065</v>
       </c>
       <c r="T19" t="n">
-        <v>0.507318952234207</v>
+        <v>0.301231527093596</v>
       </c>
       <c r="U19" t="n">
-        <v>0.301231527093596</v>
+        <v>0.214249684741488</v>
       </c>
       <c r="V19" t="n">
-        <v>0.214249684741488</v>
+        <v>0.6456445993031359</v>
       </c>
       <c r="W19" t="n">
-        <v>0.645644599303136</v>
+        <v>0.2102487676258168</v>
       </c>
       <c r="X19" t="n">
-        <v>0.210248767625817</v>
+        <v>0.3052825552825552</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.305282555282555</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.247284667845416</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.264625478403499</v>
+        <v>0.2472846678454155</v>
       </c>
     </row>
     <row r="20">
@@ -2105,82 +1989,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.265347633136095</v>
+        <v>0.2653476331360946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.261151231945624</v>
+        <v>0.2611512319456244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.229146381045115</v>
+        <v>0.2291463810451152</v>
       </c>
       <c r="E20" t="n">
-        <v>0.117099863201094</v>
+        <v>0.1170998632010943</v>
       </c>
       <c r="F20" t="n">
-        <v>0.251736593498194</v>
+        <v>0.2517365934981939</v>
       </c>
       <c r="G20" t="n">
-        <v>0.21978021978022</v>
+        <v>0.2197802197802197</v>
       </c>
       <c r="H20" t="n">
         <v>0.188470066518847</v>
       </c>
       <c r="I20" t="n">
-        <v>0.648268398268398</v>
+        <v>0.6482683982683983</v>
       </c>
       <c r="J20" t="n">
-        <v>0.264535384262182</v>
+        <v>0.2645353842621821</v>
       </c>
       <c r="K20" t="n">
-        <v>0.317663817663818</v>
+        <v>0.3176638176638177</v>
       </c>
       <c r="L20" t="n">
-        <v>0.285278413424866</v>
+        <v>0.2852784134248665</v>
       </c>
       <c r="M20" t="n">
-        <v>0.264985531211244</v>
+        <v>0.2649855312112443</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3250656167979</v>
+        <v>0.3250656167979002</v>
       </c>
       <c r="O20" t="n">
-        <v>0.303955681714129</v>
+        <v>0.3039556817141288</v>
       </c>
       <c r="P20" t="n">
-        <v>0.557302771855011</v>
+        <v>0.5573027718550106</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.557302771855011</v>
+        <v>0.1800720288115246</v>
       </c>
       <c r="R20" t="n">
-        <v>0.180072028811525</v>
+        <v>0.1986376448481052</v>
       </c>
       <c r="S20" t="n">
-        <v>0.198637644848105</v>
+        <v>0.4722333734778536</v>
       </c>
       <c r="T20" t="n">
-        <v>0.472233373477854</v>
+        <v>0.2645024971187091</v>
       </c>
       <c r="U20" t="n">
-        <v>0.264502497118709</v>
+        <v>0.3494029190623617</v>
       </c>
       <c r="V20" t="n">
-        <v>0.349402919062362</v>
+        <v>0.4503115264797508</v>
       </c>
       <c r="W20" t="n">
-        <v>0.450311526479751</v>
+        <v>0.1794716981132075</v>
       </c>
       <c r="X20" t="n">
-        <v>0.179471698113208</v>
+        <v>0.3127944224609007</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.312794422460901</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.273551743532058</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.251606978879706</v>
+        <v>0.2735517435320584</v>
       </c>
     </row>
     <row r="21">
@@ -2193,79 +2071,73 @@
         <v>0.298825426070935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.31140988372093</v>
+        <v>0.3114098837209302</v>
       </c>
       <c r="D21" t="n">
-        <v>0.288370998116761</v>
+        <v>0.2883709981167608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.376930387265384</v>
+        <v>0.3769303872653837</v>
       </c>
       <c r="F21" t="n">
         <v>0.384588708558746</v>
       </c>
       <c r="G21" t="n">
-        <v>0.460347344962729</v>
+        <v>0.4603473449627295</v>
       </c>
       <c r="H21" t="n">
-        <v>0.228520383303557</v>
+        <v>0.2285203833035569</v>
       </c>
       <c r="I21" t="n">
-        <v>0.269115646258503</v>
+        <v>0.2691156462585033</v>
       </c>
       <c r="J21" t="n">
-        <v>0.270878018404484</v>
+        <v>0.2708780184044835</v>
       </c>
       <c r="K21" t="n">
-        <v>0.829953457446808</v>
+        <v>0.8299534574468085</v>
       </c>
       <c r="L21" t="n">
         <v>0.272466039707419</v>
       </c>
       <c r="M21" t="n">
-        <v>0.301226551226551</v>
+        <v>0.3012265512265512</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367737888438525</v>
+        <v>0.3677378884385254</v>
       </c>
       <c r="O21" t="n">
-        <v>0.200452079566004</v>
+        <v>0.2004520795660036</v>
       </c>
       <c r="P21" t="n">
-        <v>0.498682476943346</v>
+        <v>0.4986824769433465</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.498682476943346</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>0.224</v>
+        <v>0.3198370125851042</v>
       </c>
       <c r="S21" t="n">
-        <v>0.319837012585104</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="T21" t="n">
-        <v>0.945454545454545</v>
+        <v>0.274400417101147</v>
       </c>
       <c r="U21" t="n">
-        <v>0.274400417101147</v>
+        <v>0.3078403519222838</v>
       </c>
       <c r="V21" t="n">
-        <v>0.307840351922284</v>
+        <v>0.8284429213964446</v>
       </c>
       <c r="W21" t="n">
-        <v>0.828442921396445</v>
+        <v>0.2467532467532467</v>
       </c>
       <c r="X21" t="n">
-        <v>0.246753246753247</v>
+        <v>0.3154169124535896</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.31541691245359</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.282471264367816</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.246761493522987</v>
+        <v>0.2824712643678161</v>
       </c>
     </row>
     <row r="22">
@@ -2275,82 +2147,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.287128712871287</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C22" t="n">
-        <v>0.300890838984178</v>
+        <v>0.3008908389841777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.278571428571429</v>
+        <v>0.2785714285714286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.492132934223655</v>
+        <v>0.4921329342236549</v>
       </c>
       <c r="F22" t="n">
-        <v>0.307190853475078</v>
+        <v>0.3071908534750777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.242169595110771</v>
+        <v>0.2421695951107715</v>
       </c>
       <c r="H22" t="n">
-        <v>0.23489010989011</v>
+        <v>0.2348901098901099</v>
       </c>
       <c r="I22" t="n">
-        <v>0.229292929292929</v>
+        <v>0.2292929292929292</v>
       </c>
       <c r="J22" t="n">
-        <v>0.274122807017544</v>
+        <v>0.2741228070175439</v>
       </c>
       <c r="K22" t="n">
         <v>0.336734693877551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.32252885864995</v>
+        <v>0.3225288586499503</v>
       </c>
       <c r="M22" t="n">
-        <v>0.278882284621165</v>
+        <v>0.2788822846211655</v>
       </c>
       <c r="N22" t="n">
-        <v>0.41749237804878</v>
+        <v>0.4174923780487805</v>
       </c>
       <c r="O22" t="n">
-        <v>0.321921716307201</v>
+        <v>0.3219217163072007</v>
       </c>
       <c r="P22" t="n">
         <v>0.270589102705891</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.270589102705891</v>
+        <v>0.2469231765772768</v>
       </c>
       <c r="R22" t="n">
-        <v>0.246923176577277</v>
+        <v>0.2231597072750753</v>
       </c>
       <c r="S22" t="n">
-        <v>0.223159707275075</v>
+        <v>0.220874762917409</v>
       </c>
       <c r="T22" t="n">
-        <v>0.220874762917409</v>
+        <v>0.3311688311688311</v>
       </c>
       <c r="U22" t="n">
-        <v>0.331168831168831</v>
+        <v>0.2290409121395036</v>
       </c>
       <c r="V22" t="n">
-        <v>0.229040912139504</v>
+        <v>0.6349518656454219</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6349518656454221</v>
+        <v>0.3141713044658613</v>
       </c>
       <c r="X22" t="n">
-        <v>0.314171304465861</v>
+        <v>0.2939393939393939</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.293939393939394</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.188716432618872</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.247592420006213</v>
+        <v>0.1887164326188716</v>
       </c>
     </row>
     <row r="23">
@@ -2360,82 +2226,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.356540958695952</v>
+        <v>0.3565409586959525</v>
       </c>
       <c r="C23" t="n">
-        <v>0.365356856455493</v>
+        <v>0.3653568564554932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.242647058823529</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="E23" t="n">
-        <v>0.376114081996435</v>
+        <v>0.3761140819964349</v>
       </c>
       <c r="F23" t="n">
         <v>0.304383788254756</v>
       </c>
       <c r="G23" t="n">
-        <v>0.270100597534226</v>
+        <v>0.2701005975342259</v>
       </c>
       <c r="H23" t="n">
-        <v>0.147286821705426</v>
+        <v>0.1472868217054263</v>
       </c>
       <c r="I23" t="n">
-        <v>0.238993710691824</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="J23" t="n">
         <v>0.302162211477055</v>
       </c>
       <c r="K23" t="n">
-        <v>0.562675070028011</v>
+        <v>0.5626750700280112</v>
       </c>
       <c r="L23" t="n">
-        <v>0.26196928635953</v>
+        <v>0.2619692863595302</v>
       </c>
       <c r="M23" t="n">
-        <v>0.347193556506418</v>
+        <v>0.3471935565064183</v>
       </c>
       <c r="N23" t="n">
-        <v>0.191575378195097</v>
+        <v>0.1915753781950965</v>
       </c>
       <c r="O23" t="n">
-        <v>0.208005954842445</v>
+        <v>0.2080059548424447</v>
       </c>
       <c r="P23" t="n">
-        <v>0.565904139433551</v>
+        <v>0.5659041394335512</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.565904139433551</v>
+        <v>0.3192090395480226</v>
       </c>
       <c r="R23" t="n">
-        <v>0.319209039548023</v>
+        <v>0.2495726495726495</v>
       </c>
       <c r="S23" t="n">
-        <v>0.249572649572649</v>
+        <v>0.2579761205715404</v>
       </c>
       <c r="T23" t="n">
-        <v>0.25797612057154</v>
+        <v>0.6808460634547591</v>
       </c>
       <c r="U23" t="n">
-        <v>0.680846063454759</v>
+        <v>0.2396772662553393</v>
       </c>
       <c r="V23" t="n">
-        <v>0.239677266255339</v>
+        <v>0.2101270187941835</v>
       </c>
       <c r="W23" t="n">
-        <v>0.210127018794183</v>
+        <v>0.3672207640711578</v>
       </c>
       <c r="X23" t="n">
-        <v>0.367220764071158</v>
+        <v>0.2961334066336815</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.296133406633681</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.222933588150979</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.255974842767296</v>
+        <v>0.2229335881509794</v>
       </c>
     </row>
     <row r="24">
@@ -2445,82 +2305,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6706050841389189</v>
+        <v>0.6706050841389187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.290835181079084</v>
+        <v>0.2908351810790835</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132816014394962</v>
+        <v>0.1328160143949617</v>
       </c>
       <c r="E24" t="n">
         <v>0.209047619047619</v>
       </c>
       <c r="F24" t="n">
-        <v>0.308259587020649</v>
+        <v>0.3082595870206489</v>
       </c>
       <c r="G24" t="n">
-        <v>0.273367117117117</v>
+        <v>0.2733671171171171</v>
       </c>
       <c r="H24" t="n">
-        <v>0.31007060572278</v>
+        <v>0.3100706057227796</v>
       </c>
       <c r="I24" t="n">
-        <v>0.229308666017527</v>
+        <v>0.2293086660175267</v>
       </c>
       <c r="J24" t="n">
-        <v>0.188888888888889</v>
+        <v>0.1888888888888888</v>
       </c>
       <c r="K24" t="n">
-        <v>0.619621903520209</v>
+        <v>0.6196219035202086</v>
       </c>
       <c r="L24" t="n">
-        <v>0.136329017517136</v>
+        <v>0.1363290175171363</v>
       </c>
       <c r="M24" t="n">
-        <v>0.276711679696754</v>
+        <v>0.2767116796967543</v>
       </c>
       <c r="N24" t="n">
-        <v>0.306378289020526</v>
+        <v>0.3063782890205262</v>
       </c>
       <c r="O24" t="n">
-        <v>0.265853412642403</v>
+        <v>0.2658534126424035</v>
       </c>
       <c r="P24" t="n">
-        <v>0.172413793103448</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.172413793103448</v>
+        <v>0.1396895787139689</v>
       </c>
       <c r="R24" t="n">
-        <v>0.139689578713969</v>
+        <v>0.2729344729344729</v>
       </c>
       <c r="S24" t="n">
-        <v>0.272934472934473</v>
+        <v>0.234375</v>
       </c>
       <c r="T24" t="n">
-        <v>0.234375</v>
+        <v>0.5271295633500358</v>
       </c>
       <c r="U24" t="n">
-        <v>0.527129563350036</v>
+        <v>0.2216198979591837</v>
       </c>
       <c r="V24" t="n">
-        <v>0.221619897959184</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="W24" t="n">
-        <v>0.241935483870968</v>
+        <v>0.2314478463933575</v>
       </c>
       <c r="X24" t="n">
-        <v>0.231447846393357</v>
+        <v>0.2850840915357044</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.285084091535704</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.216237799467613</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.238636363636364</v>
+        <v>0.2162377994676131</v>
       </c>
     </row>
     <row r="25">
@@ -2530,82 +2384,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.46390243902439</v>
+        <v>0.4639024390243902</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258410428931875</v>
+        <v>0.2584104289318755</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256059569941494</v>
+        <v>0.2560595699414938</v>
       </c>
       <c r="E25" t="n">
-        <v>0.496480289621883</v>
+        <v>0.4964802896218825</v>
       </c>
       <c r="F25" t="n">
-        <v>0.300485229056658</v>
+        <v>0.3004852290566576</v>
       </c>
       <c r="G25" t="n">
-        <v>0.265850673194614</v>
+        <v>0.2658506731946144</v>
       </c>
       <c r="H25" t="n">
-        <v>0.348734300774387</v>
+        <v>0.3487343007743867</v>
       </c>
       <c r="I25" t="n">
-        <v>0.238172333153445</v>
+        <v>0.2381723331534448</v>
       </c>
       <c r="J25" t="n">
-        <v>0.302963112275751</v>
+        <v>0.3029631122757509</v>
       </c>
       <c r="K25" t="n">
-        <v>0.176846590909091</v>
+        <v>0.1768465909090909</v>
       </c>
       <c r="L25" t="n">
         <v>0.285080988917306</v>
       </c>
       <c r="M25" t="n">
-        <v>0.226050830889541</v>
+        <v>0.2260508308895406</v>
       </c>
       <c r="N25" t="n">
-        <v>0.193339500462535</v>
+        <v>0.1933395004625346</v>
       </c>
       <c r="O25" t="n">
-        <v>0.132477294080802</v>
+        <v>0.1324772940808017</v>
       </c>
       <c r="P25" t="n">
-        <v>0.148953027730617</v>
+        <v>0.1489530277306168</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.148953027730617</v>
+        <v>0.2071600965406275</v>
       </c>
       <c r="R25" t="n">
-        <v>0.207160096540628</v>
+        <v>0.3074074074074074</v>
       </c>
       <c r="S25" t="n">
-        <v>0.307407407407407</v>
+        <v>0.2753414809489576</v>
       </c>
       <c r="T25" t="n">
-        <v>0.275341480948958</v>
+        <v>0.4692004588757543</v>
       </c>
       <c r="U25" t="n">
-        <v>0.469200458875754</v>
+        <v>0.2189502593835825</v>
       </c>
       <c r="V25" t="n">
-        <v>0.218950259383583</v>
+        <v>0.2014613038235085</v>
       </c>
       <c r="W25" t="n">
-        <v>0.201461303823508</v>
+        <v>0.2671531936127744</v>
       </c>
       <c r="X25" t="n">
-        <v>0.267153193612774</v>
+        <v>0.6319073083778965</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.631907308377897</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.25948361469712</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.20801218003616</v>
+        <v>0.2594836146971201</v>
       </c>
     </row>
     <row r="26">
@@ -2615,82 +2463,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.418284555201391</v>
+        <v>0.4182845552013909</v>
       </c>
       <c r="C26" t="n">
-        <v>0.307579318448884</v>
+        <v>0.3075793184488836</v>
       </c>
       <c r="D26" t="n">
         <v>0.304311152764761</v>
       </c>
       <c r="E26" t="n">
-        <v>0.290076335877863</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="F26" t="n">
-        <v>0.788838475499093</v>
+        <v>0.7888384754990926</v>
       </c>
       <c r="G26" t="n">
-        <v>0.225844432997277</v>
+        <v>0.2258444329972772</v>
       </c>
       <c r="H26" t="n">
-        <v>0.421929824561403</v>
+        <v>0.4219298245614035</v>
       </c>
       <c r="I26" t="n">
-        <v>0.347638120668828</v>
+        <v>0.3476381206688282</v>
       </c>
       <c r="J26" t="n">
-        <v>0.275396825396825</v>
+        <v>0.2753968253968254</v>
       </c>
       <c r="K26" t="n">
         <v>0.244047619047619</v>
       </c>
       <c r="L26" t="n">
-        <v>0.32132001736865</v>
+        <v>0.3213200173686495</v>
       </c>
       <c r="M26" t="n">
-        <v>0.270338079407891</v>
+        <v>0.2703380794078906</v>
       </c>
       <c r="N26" t="n">
-        <v>0.404216648491458</v>
+        <v>0.4042166484914576</v>
       </c>
       <c r="O26" t="n">
-        <v>0.372024235484948</v>
+        <v>0.3720242354849482</v>
       </c>
       <c r="P26" t="n">
-        <v>0.248313090418354</v>
+        <v>0.2483130904183536</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.248313090418354</v>
+        <v>0.2092887679751263</v>
       </c>
       <c r="R26" t="n">
-        <v>0.209288767975126</v>
+        <v>0.3533704390847248</v>
       </c>
       <c r="S26" t="n">
-        <v>0.353370439084725</v>
+        <v>0.3311688311688311</v>
       </c>
       <c r="T26" t="n">
-        <v>0.331168831168831</v>
+        <v>0.8474078341013824</v>
       </c>
       <c r="U26" t="n">
-        <v>0.847407834101382</v>
+        <v>0.274025974025974</v>
       </c>
       <c r="V26" t="n">
-        <v>0.274025974025974</v>
+        <v>0.2788139646102343</v>
       </c>
       <c r="W26" t="n">
-        <v>0.278813964610234</v>
+        <v>0.2788157516527738</v>
       </c>
       <c r="X26" t="n">
-        <v>0.278815751652774</v>
+        <v>0.3146008403361344</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.314600840336134</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.321730644111906</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.252231404958678</v>
+        <v>0.3217306441119063</v>
       </c>
     </row>
     <row r="27">
@@ -2700,82 +2542,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.635355843276635</v>
+        <v>0.6353558432766354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.291578576462297</v>
+        <v>0.2915785764622974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.134877638707267</v>
+        <v>0.1348776387072669</v>
       </c>
       <c r="E27" t="n">
-        <v>0.282427307206068</v>
+        <v>0.2824273072060683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.578856048821347</v>
+        <v>0.5788560488213473</v>
       </c>
       <c r="G27" t="n">
-        <v>0.284106305367379</v>
+        <v>0.2841063053673788</v>
       </c>
       <c r="H27" t="n">
-        <v>0.254666208633917</v>
+        <v>0.2546662086339173</v>
       </c>
       <c r="I27" t="n">
-        <v>0.214343055927214</v>
+        <v>0.2143430559272143</v>
       </c>
       <c r="J27" t="n">
-        <v>0.236186706251031</v>
+        <v>0.2361867062510308</v>
       </c>
       <c r="K27" t="n">
         <v>0.172069597069597</v>
       </c>
       <c r="L27" t="n">
-        <v>0.306273436708219</v>
+        <v>0.3062734367082192</v>
       </c>
       <c r="M27" t="n">
-        <v>0.363208241353937</v>
+        <v>0.3632082413539367</v>
       </c>
       <c r="N27" t="n">
-        <v>0.611129829290207</v>
+        <v>0.6111298292902066</v>
       </c>
       <c r="O27" t="n">
-        <v>0.322344322344322</v>
+        <v>0.3223443223443223</v>
       </c>
       <c r="P27" t="n">
-        <v>0.301790558871405</v>
+        <v>0.3017905588714053</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.301790558871405</v>
+        <v>0.1954537912726066</v>
       </c>
       <c r="R27" t="n">
-        <v>0.195453791272607</v>
+        <v>0.2523544679273267</v>
       </c>
       <c r="S27" t="n">
-        <v>0.252354467927327</v>
+        <v>0.3796703296703296</v>
       </c>
       <c r="T27" t="n">
-        <v>0.37967032967033</v>
+        <v>0.2516069788797062</v>
       </c>
       <c r="U27" t="n">
-        <v>0.251606978879706</v>
+        <v>0.1793846153846154</v>
       </c>
       <c r="V27" t="n">
-        <v>0.179384615384615</v>
+        <v>0.2903245560318432</v>
       </c>
       <c r="W27" t="n">
-        <v>0.290324556031843</v>
+        <v>0.2086879432624113</v>
       </c>
       <c r="X27" t="n">
-        <v>0.208687943262411</v>
+        <v>0.5037593984962405</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.503759398496241</v>
-      </c>
-      <c r="Z27" t="n">
         <v>0.273712203289668</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.244444444444444</v>
       </c>
     </row>
     <row r="28">
@@ -2785,82 +2621,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.299630924630925</v>
+        <v>0.2996309246309246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.383432287249081</v>
+        <v>0.3834322872490812</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246455379482902</v>
+        <v>0.2464553794829024</v>
       </c>
       <c r="E28" t="n">
-        <v>0.190114709851552</v>
+        <v>0.1901147098515519</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5407801418439721</v>
+        <v>0.5407801418439716</v>
       </c>
       <c r="G28" t="n">
-        <v>0.312261422787739</v>
+        <v>0.3122614227877386</v>
       </c>
       <c r="H28" t="n">
-        <v>0.360941430111391</v>
+        <v>0.3609414301113905</v>
       </c>
       <c r="I28" t="n">
-        <v>0.279574970484061</v>
+        <v>0.2795749704840614</v>
       </c>
       <c r="J28" t="n">
-        <v>0.291170882911709</v>
+        <v>0.2911708829117088</v>
       </c>
       <c r="K28" t="n">
-        <v>0.271854266092422</v>
+        <v>0.2718542660924223</v>
       </c>
       <c r="L28" t="n">
-        <v>0.333317528803755</v>
+        <v>0.3333175288037551</v>
       </c>
       <c r="M28" t="n">
-        <v>0.806578947368421</v>
+        <v>0.8065789473684211</v>
       </c>
       <c r="N28" t="n">
         <v>0.471080446271286</v>
       </c>
       <c r="O28" t="n">
-        <v>0.341904761904762</v>
+        <v>0.3419047619047619</v>
       </c>
       <c r="P28" t="n">
-        <v>0.321260683760684</v>
+        <v>0.3212606837606837</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.321260683760684</v>
+        <v>0.3386706386147831</v>
       </c>
       <c r="R28" t="n">
-        <v>0.338670638614783</v>
+        <v>0.3330772607550483</v>
       </c>
       <c r="S28" t="n">
-        <v>0.333077260755048</v>
+        <v>0.3035444947209653</v>
       </c>
       <c r="T28" t="n">
-        <v>0.303544494720965</v>
+        <v>0.2473178994918125</v>
       </c>
       <c r="U28" t="n">
-        <v>0.247317899491812</v>
+        <v>0.2766194331983805</v>
       </c>
       <c r="V28" t="n">
-        <v>0.276619433198381</v>
+        <v>0.4431516636048173</v>
       </c>
       <c r="W28" t="n">
-        <v>0.443151663604817</v>
+        <v>0.3157598920863309</v>
       </c>
       <c r="X28" t="n">
-        <v>0.315759892086331</v>
+        <v>0.7842470506592644</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.784247050659264</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.245934245934246</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.231382978723404</v>
+        <v>0.2459342459342459</v>
       </c>
     </row>
     <row r="29">
@@ -2870,82 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.277173913043478</v>
+        <v>0.2771739130434782</v>
       </c>
       <c r="C29" t="n">
-        <v>0.63207652718729</v>
+        <v>0.6320765271872902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.338525654164105</v>
+        <v>0.3385256541641046</v>
       </c>
       <c r="E29" t="n">
-        <v>0.259316770186335</v>
+        <v>0.2593167701863354</v>
       </c>
       <c r="F29" t="n">
-        <v>0.748423707440101</v>
+        <v>0.7484237074401009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.376462896371363</v>
+        <v>0.3764628963713632</v>
       </c>
       <c r="H29" t="n">
-        <v>0.26010101010101</v>
+        <v>0.2601010101010101</v>
       </c>
       <c r="I29" t="n">
-        <v>0.300437530384054</v>
+        <v>0.3004375303840544</v>
       </c>
       <c r="J29" t="n">
-        <v>0.283281533281533</v>
+        <v>0.2832815332815332</v>
       </c>
       <c r="K29" t="n">
-        <v>0.317915222607305</v>
+        <v>0.3179152226073047</v>
       </c>
       <c r="L29" t="n">
-        <v>0.365286117979512</v>
+        <v>0.3652861179795125</v>
       </c>
       <c r="M29" t="n">
         <v>0.409105180533752</v>
       </c>
       <c r="N29" t="n">
-        <v>0.470794177261839</v>
+        <v>0.4707941772618389</v>
       </c>
       <c r="O29" t="n">
-        <v>0.223276067764257</v>
+        <v>0.2232760677642567</v>
       </c>
       <c r="P29" t="n">
-        <v>0.338582677165354</v>
+        <v>0.3385826771653543</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.338582677165354</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="R29" t="n">
-        <v>0.215909090909091</v>
+        <v>0.3648981266238206</v>
       </c>
       <c r="S29" t="n">
-        <v>0.364898126623821</v>
+        <v>0.2751016260162601</v>
       </c>
       <c r="T29" t="n">
-        <v>0.27510162601626</v>
+        <v>0.161029223822101</v>
       </c>
       <c r="U29" t="n">
-        <v>0.161029223822101</v>
+        <v>0.2696551724137931</v>
       </c>
       <c r="V29" t="n">
-        <v>0.269655172413793</v>
+        <v>0.29732868757259</v>
       </c>
       <c r="W29" t="n">
-        <v>0.29732868757259</v>
+        <v>0.3181216931216931</v>
       </c>
       <c r="X29" t="n">
-        <v>0.318121693121693</v>
+        <v>0.2553724053724053</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.255372405372405</v>
-      </c>
-      <c r="Z29" t="n">
         <v>0.292182792099096</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.246522747029846</v>
       </c>
     </row>
     <row r="30">
@@ -2955,82 +2779,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.190225796473863</v>
+        <v>0.1902257964738632</v>
       </c>
       <c r="C30" t="n">
-        <v>0.332495285983658</v>
+        <v>0.3324952859836581</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22466039707419</v>
+        <v>0.2246603970741901</v>
       </c>
       <c r="E30" t="n">
-        <v>0.27346183800623</v>
+        <v>0.2734618380062305</v>
       </c>
       <c r="F30" t="n">
-        <v>0.199522102747909</v>
+        <v>0.1995221027479092</v>
       </c>
       <c r="G30" t="n">
-        <v>0.262881975581155</v>
+        <v>0.2628819755811547</v>
       </c>
       <c r="H30" t="n">
-        <v>0.260623476140718</v>
+        <v>0.2606234761407175</v>
       </c>
       <c r="I30" t="n">
-        <v>0.230423338451415</v>
+        <v>0.2304233384514147</v>
       </c>
       <c r="J30" t="n">
-        <v>0.139051958293174</v>
+        <v>0.1390519582931744</v>
       </c>
       <c r="K30" t="n">
-        <v>0.301412180052957</v>
+        <v>0.3014121800529568</v>
       </c>
       <c r="L30" t="n">
-        <v>0.227173553719008</v>
+        <v>0.2271735537190082</v>
       </c>
       <c r="M30" t="n">
-        <v>0.381925465838509</v>
+        <v>0.3819254658385093</v>
       </c>
       <c r="N30" t="n">
-        <v>0.712769541778976</v>
+        <v>0.7127695417789758</v>
       </c>
       <c r="O30" t="n">
-        <v>0.270129116494995</v>
+        <v>0.2701291164949949</v>
       </c>
       <c r="P30" t="n">
-        <v>0.188157894736842</v>
+        <v>0.1881578947368421</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.188157894736842</v>
+        <v>0.2122593718338399</v>
       </c>
       <c r="R30" t="n">
-        <v>0.21225937183384</v>
+        <v>0.6153933995660614</v>
       </c>
       <c r="S30" t="n">
-        <v>0.615393399566061</v>
+        <v>0.223462783171521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.223462783171521</v>
+        <v>0.2881181318681318</v>
       </c>
       <c r="U30" t="n">
-        <v>0.288118131868132</v>
+        <v>0.2926997245179064</v>
       </c>
       <c r="V30" t="n">
-        <v>0.292699724517906</v>
+        <v>0.2348982785602504</v>
       </c>
       <c r="W30" t="n">
-        <v>0.23489827856025</v>
+        <v>0.1806500377928949</v>
       </c>
       <c r="X30" t="n">
-        <v>0.180650037792895</v>
+        <v>0.2602111457251644</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.260211145725164</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.205106689043395</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.263636363636364</v>
+        <v>0.2051066890433948</v>
       </c>
     </row>
     <row r="31">
@@ -3040,82 +2858,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.339330024813896</v>
+        <v>0.3393300248138958</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505264756505012</v>
+        <v>0.5052647565050117</v>
       </c>
       <c r="D31" t="n">
-        <v>0.291531764875171</v>
+        <v>0.2915317648751709</v>
       </c>
       <c r="E31" t="n">
-        <v>0.366966966966967</v>
+        <v>0.3669669669669669</v>
       </c>
       <c r="F31" t="n">
-        <v>0.219727345629511</v>
+        <v>0.2197273456295108</v>
       </c>
       <c r="G31" t="n">
-        <v>0.391660415103776</v>
+        <v>0.3916604151037759</v>
       </c>
       <c r="H31" t="n">
         <v>0.6480338564627049</v>
       </c>
       <c r="I31" t="n">
-        <v>0.189487241407067</v>
+        <v>0.1894872414070675</v>
       </c>
       <c r="J31" t="n">
-        <v>0.347186147186147</v>
+        <v>0.3471861471861472</v>
       </c>
       <c r="K31" t="n">
-        <v>0.305265195509098</v>
+        <v>0.3052651955090979</v>
       </c>
       <c r="L31" t="n">
-        <v>0.324141048824593</v>
+        <v>0.3241410488245931</v>
       </c>
       <c r="M31" t="n">
-        <v>0.776718856364874</v>
+        <v>0.7767188563648741</v>
       </c>
       <c r="N31" t="n">
         <v>0.241853905262134</v>
       </c>
       <c r="O31" t="n">
-        <v>0.216562173458725</v>
+        <v>0.2165621734587252</v>
       </c>
       <c r="P31" t="n">
-        <v>0.267787524366472</v>
+        <v>0.2677875243664717</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.267787524366472</v>
+        <v>0.2694972607154366</v>
       </c>
       <c r="R31" t="n">
-        <v>0.269497260715437</v>
+        <v>0.543037037037037</v>
       </c>
       <c r="S31" t="n">
-        <v>0.543037037037037</v>
+        <v>0.2932263814616755</v>
       </c>
       <c r="T31" t="n">
-        <v>0.293226381461676</v>
+        <v>0.2508384296705465</v>
       </c>
       <c r="U31" t="n">
-        <v>0.250838429670546</v>
+        <v>0.2833425567238516</v>
       </c>
       <c r="V31" t="n">
-        <v>0.283342556723852</v>
+        <v>0.3388136686009027</v>
       </c>
       <c r="W31" t="n">
-        <v>0.338813668600903</v>
+        <v>0.308656256024677</v>
       </c>
       <c r="X31" t="n">
-        <v>0.308656256024677</v>
+        <v>0.2143665158371041</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.214366515837104</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.338378520663332</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.26231884057971</v>
+        <v>0.3383785206633324</v>
       </c>
     </row>
   </sheetData>

--- a/CNIntelligibility/intelligibility_difflib.xlsx
+++ b/CNIntelligibility/intelligibility_difflib.xlsx
@@ -563,2371 +563,2371 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4236363636363636</v>
+        <v>0.6787749287749287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2958709324582991</v>
+        <v>0.0937611408199643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2187706543291473</v>
+        <v>0.1637885923600209</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2646831031366981</v>
+        <v>0.1357370095440084</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7230208109847672</v>
+        <v>0.6625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.246031746031746</v>
+        <v>0.1257035647279549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3125588204538324</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2921389131066551</v>
+        <v>0.0899209486166007</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2704545454545454</v>
+        <v>0.1125727295724766</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2820232399179767</v>
+        <v>0.1068044788975021</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2705004522158577</v>
+        <v>0.123858794887401</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2538441987546067</v>
+        <v>0.08554396423248881</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3383084577114428</v>
+        <v>0.1421383647798742</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2854406130268199</v>
+        <v>0.0941176470588235</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2584347826086957</v>
+        <v>0.1219833260201842</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1328160143949617</v>
+        <v>0.1162790697674418</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2887474367737526</v>
+        <v>0.1491963661774982</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2057777777777777</v>
+        <v>0.1053351573187414</v>
       </c>
       <c r="T2" t="n">
-        <v>0.820217276099629</v>
+        <v>0.7968085106382978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3446428571428571</v>
+        <v>0.1235109717868338</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3214055678809132</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2983018100467764</v>
+        <v>0.104735883424408</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3664951400800457</v>
+        <v>0.3855981416957026</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2810975609756098</v>
+        <v>0.1177394034536891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9015448603683898</v>
+        <v>0.6897203325774754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3565918170546907</v>
+        <v>0.1214915797914996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2752100840336134</v>
+        <v>0.1682539682539682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1489530277306168</v>
+        <v>0.1223990208078335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5676390977443608</v>
+        <v>0.4262626262626262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3108028335301063</v>
+        <v>0.1228422320353271</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2794486215538847</v>
+        <v>0.1396321070234114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2928802588996764</v>
+        <v>0.1319966583124477</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1817365269461078</v>
+        <v>0.0900537634408602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2045925925925926</v>
+        <v>0.109391124871001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2376363443820819</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2994054054054054</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7637362637362637</v>
+        <v>0.8284600389863548</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3496741854636591</v>
+        <v>0.1111859838274932</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2967687074829932</v>
+        <v>0.0947712418300653</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2660737892080279</v>
+        <v>0.1128775834658187</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3059701492537313</v>
+        <v>0.1308474576271186</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2575565754075012</v>
+        <v>0.1445993031358884</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2224593742420567</v>
+        <v>0.1448412698412698</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1154684095860566</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3002898239587805</v>
+        <v>0.1381475667189953</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="X3" t="n">
-        <v>0.582651452593649</v>
+        <v>0.7220279720279721</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4363976847122914</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3321842250413679</v>
+        <v>0.1141700404858299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3824092741935484</v>
+        <v>0.1605780810919309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2851190476190476</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2640743784672282</v>
+        <v>0.0857558139534883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6561654425976033</v>
+        <v>0.8080476900149032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.1284313725490196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3523328240686332</v>
+        <v>0.1146772448611612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0626938413823659</v>
+        <v>0.1387445021991203</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2935960591133005</v>
+        <v>0.1267792121813968</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2749969328916697</v>
+        <v>0.105295566502463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2725885225885226</v>
+        <v>0.0923180592991913</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7983606557377049</v>
+        <v>0.8577586206896552</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5317227722772278</v>
+        <v>0.699066067104808</v>
       </c>
       <c r="O4" t="n">
-        <v>0.312070938215103</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3597494553376906</v>
+        <v>0.0962765957446808</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2364589400116482</v>
+        <v>0.1355511420059583</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2658450704225352</v>
+        <v>0.1008474576271186</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3214812992125984</v>
+        <v>0.1114535182331792</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2515723270440251</v>
+        <v>0.1114058355437665</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2491531467284721</v>
+        <v>0.1383171912832929</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4315896448438168</v>
+        <v>0.1247208931419457</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2716972034715526</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6206140350877193</v>
+        <v>0.7069695802849442</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.311391223155929</v>
+        <v>0.1613712374581939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2057035998129967</v>
+        <v>0.1005834954153931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5750684931506849</v>
+        <v>0.8793103448275863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.1161387631975867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2322036205253845</v>
+        <v>0.1117290192113245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7555627846454132</v>
+        <v>0.7593244194229416</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2671264983593384</v>
+        <v>0.1158405172413793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1770970575318401</v>
+        <v>0.0850877192982456</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2439767779390421</v>
+        <v>0.1244514106583072</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2688223938223938</v>
+        <v>0.1237468671679198</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3521943573667712</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3848250592072925</v>
+        <v>0.1081168831168831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5439960767829621</v>
+        <v>0.8356997971602435</v>
       </c>
       <c r="N5" t="n">
-        <v>0.475807993880283</v>
+        <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2104642014162077</v>
+        <v>0.1300539083557951</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2673076923076923</v>
+        <v>0.095187165775401</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2044441085329907</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3373914187944196</v>
+        <v>0.1649831649831649</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2126760563380281</v>
+        <v>0.1191451990632318</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1554564172958133</v>
+        <v>0.105911330049261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3826590730557737</v>
+        <v>0.0906084656084656</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2875039148136549</v>
+        <v>0.1154156577885391</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2854940175157271</v>
+        <v>0.103725782414307</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1123527373527373</v>
+        <v>0.07151979565772661</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2170498084291187</v>
+        <v>0.09934318555008199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1421052631578947</v>
+        <v>0.117037037037037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4869303724265557</v>
+        <v>0.5414560161779576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2552532888862432</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3269112637516055</v>
+        <v>0.111280487804878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2904575163398692</v>
+        <v>0.1724646226415094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2888993859234766</v>
+        <v>0.10727969348659</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4377273297378653</v>
+        <v>0.1416326530612244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1984691088026244</v>
+        <v>0.1795454545454545</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3077905491698595</v>
+        <v>0.1994230075730256</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3819016804091431</v>
+        <v>0.1592592592592592</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2987727465086754</v>
+        <v>0.1491963661774982</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5311396170291875</v>
+        <v>0.8368421052631578</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6914930555555556</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="O6" t="n">
-        <v>0.289091851276072</v>
+        <v>0.08572731418148651</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2776470588235294</v>
+        <v>0.1274981027068049</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3286264441591784</v>
+        <v>0.1197636949516648</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7454168107921135</v>
+        <v>0.8789186079953983</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3884248651045901</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3155555555555556</v>
+        <v>0.1559220389805097</v>
       </c>
       <c r="U6" t="n">
-        <v>0.337173100871731</v>
+        <v>0.113010115102895</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2672062237279629</v>
+        <v>0.1286195286195286</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2367939078465394</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3104253544620517</v>
+        <v>0.0917335193582141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3311011904761904</v>
+        <v>0.106203007518797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.451700385095189</v>
+        <v>0.7639257294429709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.0944444444444444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3717636783330214</v>
+        <v>0.1165845648604269</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2595698924731183</v>
+        <v>0.1495119787045253</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3621411483253588</v>
+        <v>0.1111492281303602</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6641302050306489</v>
+        <v>0.67984934086629</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2827218319021597</v>
+        <v>0.201863354037267</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2758802445709467</v>
+        <v>0.1263191557403262</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3475241545893719</v>
+        <v>0.1135416666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3277690494893951</v>
+        <v>0.11010101010101</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8127383676582761</v>
+        <v>0.6062893081761006</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2590080971659919</v>
+        <v>0.1435923829130211</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2590832590832591</v>
+        <v>0.1175141242937853</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2676542976145399</v>
+        <v>0.1114488348530901</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3829095209934949</v>
+        <v>0.566158781074579</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2938943372350522</v>
+        <v>0.1756513926325247</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3165699548678272</v>
+        <v>0.1620294599018003</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2711093088222042</v>
+        <v>0.1520319303338171</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2958879124523296</v>
+        <v>0.14</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2506403567024001</v>
+        <v>0.1199059561128526</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2273232960023733</v>
+        <v>0.1199161425576519</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1670973298880275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2638957611743361</v>
+        <v>0.1412244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7300500192381685</v>
+        <v>0.8267796610169491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3346171802054155</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2671797691039032</v>
+        <v>0.1105476673427992</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1762201834862385</v>
+        <v>0.1104631217838764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2236842105263157</v>
+        <v>0.133951762523191</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4248366013071896</v>
+        <v>0.7314211212516297</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2505870976654234</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.126657824933687</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2897832817337461</v>
+        <v>0.1193557664653436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2833038608900677</v>
+        <v>0.0908469945355191</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2990964337118183</v>
+        <v>0.1158655181994998</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2794365248624986</v>
+        <v>0.124756335282651</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4013888888888889</v>
+        <v>0.1539030706622271</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2679593961478397</v>
+        <v>0.118916797488226</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.315122500704027</v>
+        <v>0.125886524822695</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5564948534303942</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3171249720545495</v>
+        <v>0.1853518821603927</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.1040737436812369</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2984126984126984</v>
+        <v>0.1112637362637362</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3027385537013264</v>
+        <v>0.147911051212938</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3856386588842133</v>
+        <v>0.09953703703703699</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2718065316246383</v>
+        <v>0.10727969348659</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4824106710899163</v>
+        <v>0.7662936142198815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3704088254380272</v>
+        <v>0.1024335031126202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3021541950113379</v>
+        <v>0.1137312699582412</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2193670150987224</v>
+        <v>0.0943396226415094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2249619482496194</v>
+        <v>0.1043557168784029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2892321270962047</v>
+        <v>0.1177966101694915</v>
       </c>
       <c r="G9" t="n">
-        <v>0.352549889135255</v>
+        <v>0.1085397653194263</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5854915065441382</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2622354497354497</v>
+        <v>0.1105594174114531</v>
       </c>
       <c r="J9" t="n">
-        <v>0.270682302771855</v>
+        <v>0.1155737704918032</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2363823227132579</v>
+        <v>0.1094164456233421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3416908412764193</v>
+        <v>0.1372434017595308</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2660080225820829</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1738556701030927</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6203491872366045</v>
+        <v>0.907627118644068</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2078853046594982</v>
+        <v>0.1478779840848806</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3802546659689517</v>
+        <v>0.0896686159844054</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6972370766488414</v>
+        <v>0.9492124718739956</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2700520485786734</v>
+        <v>0.089937106918239</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3041847041847041</v>
+        <v>0.1059782608695652</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3346291401026279</v>
+        <v>0.1055555555555555</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2842592592592592</v>
+        <v>0.1656946826758147</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2873173582700175</v>
+        <v>0.1053929121725731</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2005461165048543</v>
+        <v>0.0897832817337461</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3479022781156582</v>
+        <v>0.7638986629134412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2956053067993366</v>
+        <v>0.140625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2481481481481481</v>
+        <v>0.1286449399656946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2933933933933934</v>
+        <v>0.1053351573187414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2317961165048543</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2195488721804511</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3001940719830628</v>
+        <v>0.102751756440281</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64275875639512</v>
+        <v>0.6369452219112355</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2310881877022653</v>
+        <v>0.1506211180124223</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3325123152709359</v>
+        <v>0.1074829931972789</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2455724445684005</v>
+        <v>0.1478779840848806</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5578231292517006</v>
+        <v>0.6788793103448276</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2924066135946112</v>
+        <v>0.1146589259796806</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2445904610853064</v>
+        <v>0.1403940886699507</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4984096692111959</v>
+        <v>0.4757894736842105</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2054743157105361</v>
+        <v>0.1874145006839945</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3115079365079365</v>
+        <v>0.08763308763308759</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1995967741935483</v>
+        <v>0.1424234758411333</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0729166666666666</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2532773604359994</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2557099951107076</v>
+        <v>0.1281032770605759</v>
       </c>
       <c r="V10" t="n">
-        <v>0.246451033243486</v>
+        <v>0.1077297626293365</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2863123993558776</v>
+        <v>0.1318082788671024</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2783115991763898</v>
+        <v>0.1470985155195681</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5126344086021506</v>
+        <v>0.7655485674353599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2241330502476999</v>
+        <v>0.105295566502463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2723378549069141</v>
+        <v>0.0975881261595547</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.1174012158054711</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2464741994358719</v>
+        <v>0.1305555555555555</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4764384274928404</v>
+        <v>0.1086369770580296</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3038461538461539</v>
+        <v>0.1569230769230769</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2463768115942028</v>
+        <v>0.0809263596148842</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2848932676518883</v>
+        <v>0.0614211160176635</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3663839965209828</v>
+        <v>0.1111492281303602</v>
       </c>
       <c r="K11" t="n">
-        <v>0.280103995621237</v>
+        <v>0.1702279202279202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4910030133448128</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.355191256830601</v>
+        <v>0.0925141242937853</v>
       </c>
       <c r="N11" t="n">
-        <v>0.192986641221374</v>
+        <v>0.118916797488226</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4184131736526946</v>
+        <v>0.7907142857142857</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3356681034482758</v>
+        <v>0.1240829346092503</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2023291925465838</v>
+        <v>0.089922480620155</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2198262952979934</v>
+        <v>0.131054131054131</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3641188959660297</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2644273453684522</v>
+        <v>0.11010101010101</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.861904761904762</v>
       </c>
       <c r="V11" t="n">
-        <v>0.140495867768595</v>
+        <v>0.1077922077922077</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2560640732265446</v>
+        <v>0.0916637841577308</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2646831031366981</v>
+        <v>0.1139608672659968</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5708505747126438</v>
+        <v>0.7078571428571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3281766650921114</v>
+        <v>0.1103238866396761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3842342342342342</v>
+        <v>0.131062951496388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2713494132985658</v>
+        <v>0.1595124536301007</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2540296582849775</v>
+        <v>0.1465201465201465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3025318979266347</v>
+        <v>0.1204710144927536</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6562150055991041</v>
+        <v>0.8977011494252873</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2250476795931341</v>
+        <v>0.1204600484261501</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3434731934731935</v>
+        <v>0.07936507936507931</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2770853307766059</v>
+        <v>0.1588628762541806</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2350262921636526</v>
+        <v>0.1024335031126202</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5713784790707868</v>
+        <v>0.8868723532970357</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3613217768147345</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="N12" t="n">
-        <v>0.450427823421736</v>
+        <v>0.1223466981132075</v>
       </c>
       <c r="O12" t="n">
-        <v>0.842821556595176</v>
+        <v>0.7372448979591837</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2751825823342979</v>
+        <v>0.12465202598206</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2662057044079516</v>
+        <v>0.1126315789473684</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2378955394586351</v>
+        <v>0.109391124871001</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3812424997692236</v>
+        <v>0.1157142857142857</v>
       </c>
       <c r="T12" t="n">
-        <v>0.279796648465449</v>
+        <v>0.144316730523627</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5717580032555616</v>
+        <v>0.8328641801548206</v>
       </c>
       <c r="V12" t="n">
-        <v>0.275743863979158</v>
+        <v>0.1206896551724137</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3309859154929577</v>
+        <v>0.09542815674891141</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2604032049625226</v>
+        <v>0.1206088992974238</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.257451564828614</v>
+        <v>0.0777126099706744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3342586167013648</v>
+        <v>0.1594982078853046</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2340848806366047</v>
+        <v>0.1218974076116933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4719976040730758</v>
+        <v>0.5694838343732275</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3274803149606299</v>
+        <v>0.094054054054054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2758071601142104</v>
+        <v>0.1336913510457885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4611249297921848</v>
+        <v>0.74</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1208483393357342</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2740740740740741</v>
+        <v>0.0654761904761904</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3320971302428256</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2571225071225071</v>
+        <v>0.143268308282699</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6560026827632461</v>
+        <v>0.8900293255131965</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.1262987012987013</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2871551275377407</v>
+        <v>0.0983606557377049</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2266282143715453</v>
+        <v>0.1096813725490196</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2924273157538878</v>
+        <v>0.1347457627118644</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2148148148148148</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="R13" t="n">
-        <v>0.269753086419753</v>
+        <v>0.1391409558378705</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3361511492014024</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="T13" t="n">
-        <v>0.334104111443235</v>
+        <v>0.1425925925925926</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4234498834498834</v>
+        <v>0.6609195402298851</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2701614931830759</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="W13" t="n">
-        <v>0.329213747645951</v>
+        <v>0.1640866873065015</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1953067571388182</v>
+        <v>0.147719298245614</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2650612661674608</v>
+        <v>0.1347402597402597</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3366906474820144</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3209718670076726</v>
+        <v>0.4166112956810631</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2561813186813186</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2211328976034858</v>
+        <v>0.1035714285714285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5026118459853399</v>
+        <v>0.569743935309973</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3435013262599469</v>
+        <v>0.1190292758089368</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2404181184668989</v>
+        <v>0.09520239880059959</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3070866141732283</v>
+        <v>0.12227602905569</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2418414918414918</v>
+        <v>0.0936819172113289</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2354603249352484</v>
+        <v>0.0774509803921568</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1795454545454545</v>
+        <v>0.092504743833017</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2596057884231537</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="O14" t="n">
-        <v>0.280927536231884</v>
+        <v>0.1241496598639455</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3338039641596524</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2981691368788143</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R14" t="n">
-        <v>0.232</v>
+        <v>0.1088235294117647</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3288160833953835</v>
+        <v>0.1805194805194805</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3010132102090547</v>
+        <v>0.1143790849673202</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7210068924183398</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3615448968209704</v>
+        <v>0.1068726355611601</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7143695014662756</v>
+        <v>0.5695216907675195</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2738326498309231</v>
+        <v>0.1755555555555555</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2809018567639257</v>
+        <v>0.073780487804878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2740244772515229</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2600267379679144</v>
+        <v>0.1272727272727272</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3938736785036595</v>
+        <v>0.4782398452611218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3353288757580469</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3168360583296509</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6700466763238371</v>
+        <v>0.6928104575163399</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2080707573244886</v>
+        <v>0.1167800453514739</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2854030501089324</v>
+        <v>0.1066790352504638</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3193056943056943</v>
+        <v>0.1483516483516483</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2683883622098725</v>
+        <v>0.105295566502463</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2621419676214196</v>
+        <v>0.1452391399736726</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2857005988023952</v>
+        <v>0.0982142857142857</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.1267792121813968</v>
       </c>
       <c r="O15" t="n">
-        <v>0.141278816876903</v>
+        <v>0.0889655172413793</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2801375809790957</v>
+        <v>0.106269592476489</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5169444444444444</v>
+        <v>0.3584010840108401</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4389306230667256</v>
+        <v>0.1127286300858529</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2914054054054054</v>
+        <v>0.1071770334928229</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2185271317829457</v>
+        <v>0.07163415414134949</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2917917917917918</v>
+        <v>0.1497638232842456</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3285010555946517</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5552541573298738</v>
+        <v>0.7931972789115647</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2547575599582898</v>
+        <v>0.1966037735849056</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3105255047002619</v>
+        <v>0.1114341085271317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3095105672969966</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2874132240810287</v>
+        <v>0.1132897603485838</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5970022142735479</v>
+        <v>0.5399393326592518</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2734234234234234</v>
+        <v>0.1023017902813299</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2339199029126213</v>
+        <v>0.1766037735849056</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2804878048780488</v>
+        <v>0.1046684507879869</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3594905250077663</v>
+        <v>0.1162055335968379</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2515151515151515</v>
+        <v>0.1422611597830621</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6945006747638327</v>
+        <v>0.8570621468926554</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3786466165413533</v>
+        <v>0.1133689839572192</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3165814401877777</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2780748663101604</v>
+        <v>0.1277966101694915</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2531895777178796</v>
+        <v>0.1620408163265306</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2759420289855072</v>
+        <v>0.1317663817663817</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2880184331797235</v>
+        <v>0.1502849002849002</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2181272509003601</v>
+        <v>0.3523809523809523</v>
       </c>
       <c r="R16" t="n">
-        <v>0.290305230603738</v>
+        <v>0.1039426523297491</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2767778901247051</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.291383701188455</v>
+        <v>0.1540436456996148</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3012568482114083</v>
+        <v>0.119106699751861</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3294148380355277</v>
+        <v>0.0889952153110047</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4128540305010893</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2004384591293454</v>
+        <v>0.1201192250372578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.143581081081081</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.332814391973707</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2442960959945918</v>
+        <v>0.09693877551020399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1314002715871874</v>
+        <v>0.1357370095440084</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2522446324007807</v>
+        <v>0.0912820512820512</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2905388471177945</v>
+        <v>0.0784658691062631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2680313064419025</v>
+        <v>0.0597945707997065</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2318635382955771</v>
+        <v>0.0442176870748299</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4971517699715176</v>
+        <v>0.4616376531270148</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4350821409644939</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3004694835680751</v>
+        <v>0.0997542997542997</v>
       </c>
       <c r="L17" t="n">
-        <v>0.314818763326226</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3024193548387097</v>
+        <v>0.1179962894248608</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2015221182812747</v>
+        <v>0.1269565217391304</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3513333333333333</v>
+        <v>0.0657004830917874</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3612195121951219</v>
+        <v>0.0583136327817178</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.6320921985815603</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2385714285714285</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2557734204793028</v>
+        <v>0.1384313725490196</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3688594330750974</v>
+        <v>0.0285714285714285</v>
       </c>
       <c r="U17" t="n">
-        <v>0.219750406945198</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1494915013156958</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8359375</v>
+        <v>0.7831132452981193</v>
       </c>
       <c r="X17" t="n">
-        <v>0.116504854368932</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3428571428571428</v>
+        <v>0.0454545454545454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.256625272052234</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2758260869565218</v>
+        <v>0.1161154116819141</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1570541259982253</v>
+        <v>0.0753306497987349</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1810747663551402</v>
+        <v>0.0511508951406649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2320689655172413</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1557203389830508</v>
+        <v>0.06802721088435371</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2020342117429496</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3549268464657148</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4862977602108037</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="K18" t="n">
-        <v>0.228440366972477</v>
+        <v>0.0548821548821548</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2371502927781392</v>
+        <v>0.039276087793608</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1928070175438596</v>
+        <v>0.1377358490566037</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3044899738448126</v>
+        <v>0.0554106910039113</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3173361522198731</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2339369158878504</v>
+        <v>0.0755649717514124</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3525014376078206</v>
+        <v>0.5601617795753286</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2284482758620689</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5766324878575284</v>
+        <v>0.4750795334040297</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3692376325964112</v>
+        <v>0.1005656819610308</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3197994987468672</v>
+        <v>0.0877358490566037</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4094822946937897</v>
+        <v>0.139937106918239</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2348744292237443</v>
+        <v>0.1143395211191821</v>
       </c>
       <c r="X18" t="n">
-        <v>0.307021539662914</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2307905686546463</v>
+        <v>0.0806451612903225</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3361928104575163</v>
+        <v>0.0963995354239256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1827104358434069</v>
+        <v>0.1405982905982906</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2269664622605799</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2179513184584178</v>
+        <v>0.0416666666666666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2812206572769953</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="G19" t="n">
-        <v>0.261136712749616</v>
+        <v>0.0416666666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2234753550543024</v>
+        <v>0.0825531914893617</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4265814487053425</v>
+        <v>0.6838235294117647</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7365361720008404</v>
+        <v>0.8378088077336198</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1912014976174268</v>
+        <v>0.025</v>
       </c>
       <c r="L19" t="n">
-        <v>0.310416432820743</v>
+        <v>0.0788113695090439</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3656091448132526</v>
+        <v>0.0542784163473818</v>
       </c>
       <c r="N19" t="n">
-        <v>0.308317698561601</v>
+        <v>0.0212765957446808</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2709122203098106</v>
+        <v>0.0561205273069679</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2938013442867812</v>
+        <v>0.1047027506654835</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2092731829573934</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3019582386670994</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5073189522342065</v>
+        <v>0.2801182557280118</v>
       </c>
       <c r="T19" t="n">
-        <v>0.301231527093596</v>
+        <v>0.1147950089126559</v>
       </c>
       <c r="U19" t="n">
-        <v>0.214249684741488</v>
+        <v>0.07346491228070171</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6456445993031359</v>
+        <v>0.4108695652173912</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2102487676258168</v>
+        <v>0.0650623885918003</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3052825552825552</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2472846678454155</v>
+        <v>0.09898989898989891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2653476331360946</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2611512319456244</v>
+        <v>0.0821078431372549</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2291463810451152</v>
+        <v>0.0579831932773109</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1170998632010943</v>
+        <v>0.057258064516129</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2517365934981939</v>
+        <v>0.025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2197802197802197</v>
+        <v>0.0658627087198515</v>
       </c>
       <c r="H20" t="n">
-        <v>0.188470066518847</v>
+        <v>0.1093700031979533</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6482683982683983</v>
+        <v>0.3543543543543543</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2645353842621821</v>
+        <v>0.1186440677966101</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3176638176638177</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2852784134248665</v>
+        <v>0.09923455440131219</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2649855312112443</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3250656167979002</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3039556817141288</v>
+        <v>0.0481997677119628</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5573027718550106</v>
+        <v>0.6146034816247583</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1800720288115246</v>
+        <v>0.085304054054054</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1986376448481052</v>
+        <v>0.1012244897959183</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4722333734778536</v>
+        <v>0.7308845577211394</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2645024971187091</v>
+        <v>0.06305418719211819</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3494029190623617</v>
+        <v>0.0976939203354297</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4503115264797508</v>
+        <v>0.2659090909090909</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1794716981132075</v>
+        <v>0.0605345911949685</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3127944224609007</v>
+        <v>0.07703081232492991</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2735517435320584</v>
+        <v>0.09041769041769041</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.298825426070935</v>
+        <v>0.0545808966861598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3114098837209302</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2883709981167608</v>
+        <v>0.0913336792942397</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3769303872653837</v>
+        <v>0.12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.384588708558746</v>
+        <v>0.0739348370927318</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4603473449627295</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2285203833035569</v>
+        <v>0.1378205128205128</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2691156462585033</v>
+        <v>0.096343001261034</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2708780184044835</v>
+        <v>0.06572104018912529</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8299534574468085</v>
+        <v>0.5111572392319668</v>
       </c>
       <c r="L21" t="n">
-        <v>0.272466039707419</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3012265512265512</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3677378884385254</v>
+        <v>0.025</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2004520795660036</v>
+        <v>0.0894599869876382</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4986824769433465</v>
+        <v>0.5473624503686898</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2239999999999999</v>
+        <v>0.0494047619047619</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3198370125851042</v>
+        <v>0.0714946070878274</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.8050108932461874</v>
       </c>
       <c r="T21" t="n">
-        <v>0.274400417101147</v>
+        <v>0.051417270929466</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3078403519222838</v>
+        <v>0.0421472937000887</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8284429213964446</v>
+        <v>0.8484276729559749</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2467532467532467</v>
+        <v>0.0612244897959183</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3154169124535896</v>
+        <v>0.09470246734397671</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2824712643678161</v>
+        <v>0.1144827586206896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2871287128712871</v>
+        <v>0.07969507969507959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3008908389841777</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2785714285714286</v>
+        <v>0.1042039355992844</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4921329342236549</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3071908534750777</v>
+        <v>0.125</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2421695951107715</v>
+        <v>0.0626376315145583</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2348901098901099</v>
+        <v>0.0580601092896174</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2292929292929292</v>
+        <v>0.07588739290085671</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2741228070175439</v>
+        <v>0.0473801560758082</v>
       </c>
       <c r="K22" t="n">
-        <v>0.336734693877551</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3225288586499503</v>
+        <v>0.0749299719887955</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2788822846211655</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4174923780487805</v>
+        <v>0.0750962772785622</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3219217163072007</v>
+        <v>0.09886363636363631</v>
       </c>
       <c r="P22" t="n">
-        <v>0.270589102705891</v>
+        <v>0.7069716775599129</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2469231765772768</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2231597072750753</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="S22" t="n">
-        <v>0.220874762917409</v>
+        <v>0.0730696798493408</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3311688311688311</v>
+        <v>0.1425</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2290409121395036</v>
+        <v>0.07402812241521919</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6349518656454219</v>
+        <v>0.6311248073959939</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3141713044658613</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2939393939393939</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1887164326188716</v>
+        <v>0.1279461279461279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3565409586959525</v>
+        <v>0.1354716981132075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3653568564554932</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.0854241338112305</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3761140819964349</v>
+        <v>0.3288461538461538</v>
       </c>
       <c r="F23" t="n">
-        <v>0.304383788254756</v>
+        <v>0.0695704779189352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2701005975342259</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1472868217054263</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2389937106918239</v>
+        <v>0.0422473867595818</v>
       </c>
       <c r="J23" t="n">
-        <v>0.302162211477055</v>
+        <v>0.1023519163763066</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5626750700280112</v>
+        <v>0.8855799373040751</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2619692863595302</v>
+        <v>0.1141456582633053</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3471935565064183</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1915753781950965</v>
+        <v>0.1146873843877173</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2080059548424447</v>
+        <v>0.1782407407407407</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5659041394335512</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3192090395480226</v>
+        <v>0.0901722391084093</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2495726495726495</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2579761205715404</v>
+        <v>0.0653795524352786</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6808460634547591</v>
+        <v>0.4507278835386338</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2396772662553393</v>
+        <v>0.07508771929824561</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2101270187941835</v>
+        <v>0.12227602905569</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3672207640711578</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2961334066336815</v>
+        <v>0.07428940568475451</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2229335881509794</v>
+        <v>0.0746414602346805</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6706050841389187</v>
+        <v>0.7022727272727273</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2908351810790835</v>
+        <v>0.07200929152148659</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1328160143949617</v>
+        <v>0.048780487804878</v>
       </c>
       <c r="E24" t="n">
-        <v>0.209047619047619</v>
+        <v>0.7217021276595745</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3082595870206489</v>
+        <v>0.0518272425249169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2733671171171171</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3100706057227796</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2293086660175267</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1888888888888888</v>
+        <v>0.0910364145658263</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6196219035202086</v>
+        <v>0.8287627551020409</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1363290175171363</v>
+        <v>0.1233974358974359</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2767116796967543</v>
+        <v>0.134074074074074</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3063782890205262</v>
+        <v>0.08347016967706621</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2658534126424035</v>
+        <v>0.06441885964912281</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.092967409948542</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1396895787139689</v>
+        <v>0.07439024390243899</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2729344729344729</v>
+        <v>0.025</v>
       </c>
       <c r="S24" t="n">
-        <v>0.234375</v>
+        <v>0.0667311411992263</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5271295633500358</v>
+        <v>0.5788497217068646</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2216198979591837</v>
+        <v>0.119589141599413</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.06388642413487131</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2314478463933575</v>
+        <v>0.1150537634408602</v>
       </c>
       <c r="X24" t="n">
-        <v>0.2850840915357044</v>
+        <v>0.1122377622377622</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2162377994676131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4639024390243902</v>
+        <v>0.3005932762030323</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2584104289318755</v>
+        <v>0.0792156862745098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2560595699414938</v>
+        <v>0.0773098680075424</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4964802896218825</v>
+        <v>0.5410714285714285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3004852290566576</v>
+        <v>0.1132478632478632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2658506731946144</v>
+        <v>0.1167203723594701</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3487343007743867</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2381723331534448</v>
+        <v>0.06477541371158391</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3029631122757509</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1768465909090909</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="L25" t="n">
-        <v>0.285080988917306</v>
+        <v>0.07081339712918661</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2260508308895406</v>
+        <v>0.0526645768025078</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1933395004625346</v>
+        <v>0.0547316384180791</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1324772940808017</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1489530277306168</v>
+        <v>0.0881818181818181</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2071600965406275</v>
+        <v>0.0500312695434646</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3074074074074074</v>
+        <v>0.097793679189028</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2753414809489576</v>
+        <v>0.048780487804878</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4692004588757543</v>
+        <v>0.7324797843665768</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2189502593835825</v>
+        <v>0.1161387631975867</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2014613038235085</v>
+        <v>0.0629432624113475</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2671531936127744</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6319073083778965</v>
+        <v>0.1455357142857142</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2594836146971201</v>
+        <v>0.0981996726677577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4182845552013909</v>
+        <v>0.7636554621848739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3075793184488836</v>
+        <v>0.07151979565772661</v>
       </c>
       <c r="D26" t="n">
-        <v>0.304311152764761</v>
+        <v>0.1281045751633986</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2900763358778626</v>
+        <v>0.0612765957446808</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7888384754990926</v>
+        <v>0.4904255319148936</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2258444329972772</v>
+        <v>0.131054131054131</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4219298245614035</v>
+        <v>0.09761904761904761</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3476381206688282</v>
+        <v>0.0635435992578849</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2753968253968254</v>
+        <v>0.0739683933274802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.244047619047619</v>
+        <v>0.0623461853978671</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3213200173686495</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2703380794078906</v>
+        <v>0.05</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4042166484914576</v>
+        <v>0.1225</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3720242354849482</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2483130904183536</v>
+        <v>0.0684523809523809</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2092887679751263</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3533704390847248</v>
+        <v>0.1469780219780219</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3311688311688311</v>
+        <v>0.0538461538461538</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8474078341013824</v>
+        <v>0.9167215273206056</v>
       </c>
       <c r="U26" t="n">
-        <v>0.274025974025974</v>
+        <v>0.0598484848484848</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2788139646102343</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2788157516527738</v>
+        <v>0.0754985754985755</v>
       </c>
       <c r="X26" t="n">
-        <v>0.3146008403361344</v>
+        <v>0.324775353016688</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3217306441119063</v>
+        <v>0.0256410256410256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6353558432766354</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2915785764622974</v>
+        <v>0.0947603121516165</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1348776387072669</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2824273072060683</v>
+        <v>0.07040816326530611</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5788560488213473</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2841063053673788</v>
+        <v>0.08259348937315029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2546662086339173</v>
+        <v>0.104679802955665</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2143430559272143</v>
+        <v>0.0658627087198515</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2361867062510308</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="K27" t="n">
-        <v>0.172069597069597</v>
+        <v>0.0658008658008658</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3062734367082192</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3632082413539367</v>
+        <v>0.1071770334928229</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6111298292902066</v>
+        <v>0.4867669953295277</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3223443223443223</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3017905588714053</v>
+        <v>0.1065116279069767</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1954537912726066</v>
+        <v>0.0617173524150268</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2523544679273267</v>
+        <v>0.0573870573870573</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3796703296703296</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2516069788797062</v>
+        <v>0.0997267759562841</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1793846153846154</v>
+        <v>0.04</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2903245560318432</v>
+        <v>0.08319039451114919</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2086879432624113</v>
+        <v>0.1011494252873563</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5037593984962405</v>
+        <v>0.6899378179762578</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.273712203289668</v>
+        <v>0.0534188034188034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2996309246309246</v>
+        <v>0.1134920634920634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3834322872490812</v>
+        <v>0.1167800453514739</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2464553794829024</v>
+        <v>0.0934479054779806</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1901147098515519</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5407801418439716</v>
+        <v>0.6981132075471699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3122614227877386</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3609414301113905</v>
+        <v>0.0550527903469079</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2795749704840614</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2911708829117088</v>
+        <v>0.1058897243107769</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2718542660924223</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3333175288037551</v>
+        <v>0.025</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8065789473684211</v>
+        <v>0.4581939799331104</v>
       </c>
       <c r="N28" t="n">
-        <v>0.471080446271286</v>
+        <v>0.2492546213476446</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3419047619047619</v>
+        <v>0.098780487804878</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3212606837606837</v>
+        <v>0.09610983981693361</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3386706386147831</v>
+        <v>0.1050531914893617</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3330772607550483</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3035444947209653</v>
+        <v>0.0421472937000887</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2473178994918125</v>
+        <v>0.0616666666666666</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2766194331983805</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4431516636048173</v>
+        <v>0.0757936507936507</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3157598920863309</v>
+        <v>0.1313766596785464</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7842470506592644</v>
+        <v>0.7624912033779029</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.2459342459342459</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2771739130434782</v>
+        <v>0.0677882236516576</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6320765271872902</v>
+        <v>0.4204678362573099</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3385256541641046</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2593167701863354</v>
+        <v>0.0781922525107604</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7484237074401009</v>
+        <v>0.6916451335055986</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3764628963713632</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2601010101010101</v>
+        <v>0.0563643150429264</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3004375303840544</v>
+        <v>0.048780487804878</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2832815332815332</v>
+        <v>0.1161154116819141</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3179152226073047</v>
+        <v>0.0647773279352226</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3652861179795125</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="M29" t="n">
-        <v>0.409105180533752</v>
+        <v>0.3045084996304508</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4707941772618389</v>
+        <v>0.7810760667903525</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2232760677642567</v>
+        <v>0.0923351158645276</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2159090909090909</v>
+        <v>0.0788113695090439</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3648981266238206</v>
+        <v>0.1225</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2751016260162601</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="T29" t="n">
-        <v>0.161029223822101</v>
+        <v>0.06382978723404251</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2696551724137931</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="V29" t="n">
-        <v>0.29732868757259</v>
+        <v>0.084268047167098</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3181216931216931</v>
+        <v>0.0712820512820512</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2553724053724053</v>
+        <v>0.08272283272283271</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.292182792099096</v>
+        <v>0.0414529914529914</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1902257964738632</v>
+        <v>0.0626262626262626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3324952859836581</v>
+        <v>0.5939922480620154</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2246603970741901</v>
+        <v>0.0745378652355396</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2734618380062305</v>
+        <v>0.063508064516129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1995221027479092</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2628819755811547</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2606234761407175</v>
+        <v>0.1306818181818181</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2304233384514147</v>
+        <v>0.0995440729483282</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1390519582931744</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3014121800529568</v>
+        <v>0.0454780361757106</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2271735537190082</v>
+        <v>0.09587986137851361</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3819254658385093</v>
+        <v>0.8006535947712419</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7127695417789758</v>
+        <v>0.7908163265306123</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2701291164949949</v>
+        <v>0.0545822102425875</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1881578947368421</v>
+        <v>0.0447984071677451</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2122593718338399</v>
+        <v>0.0996398559423769</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6153933995660614</v>
+        <v>0.4547112462006079</v>
       </c>
       <c r="S30" t="n">
-        <v>0.223462783171521</v>
+        <v>0.0829059829059829</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2881181318681318</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="U30" t="n">
-        <v>0.2926997245179064</v>
+        <v>0.09761904761904761</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2348982785602504</v>
+        <v>0.0471175166297117</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1806500377928949</v>
+        <v>0.0416666666666666</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2602111457251644</v>
+        <v>0.0648526077097505</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2051066890433948</v>
+        <v>0.0238095238095238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3393300248138958</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5052647565050117</v>
+        <v>0.8100195185426156</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2915317648751709</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3669669669669669</v>
+        <v>0.07965860597439541</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2197273456295108</v>
+        <v>0.0616666666666666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3916604151037759</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6480338564627049</v>
+        <v>0.4704545454545454</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1894872414070675</v>
+        <v>0.1334622823984526</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3471861471861472</v>
+        <v>0.060427413411938</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3052651955090979</v>
+        <v>0.0807692307692307</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3241410488245931</v>
+        <v>0.0708020050125313</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7767188563648741</v>
+        <v>0.6252830188679246</v>
       </c>
       <c r="N31" t="n">
-        <v>0.241853905262134</v>
+        <v>0.114516129032258</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2165621734587252</v>
+        <v>0.0495169082125603</v>
       </c>
       <c r="P31" t="n">
-        <v>0.2677875243664717</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2694972607154366</v>
+        <v>0.1081871345029239</v>
       </c>
       <c r="R31" t="n">
-        <v>0.543037037037037</v>
+        <v>0.2740693196405648</v>
       </c>
       <c r="S31" t="n">
-        <v>0.2932263814616755</v>
+        <v>0.0815993472052223</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2508384296705465</v>
+        <v>0.06382978723404251</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2833425567238516</v>
+        <v>0.1213675213675213</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3388136686009027</v>
+        <v>0.0982615268329554</v>
       </c>
       <c r="W31" t="n">
-        <v>0.308656256024677</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2143665158371041</v>
+        <v>0.0483682983682983</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3383785206633324</v>
+        <v>0.1147959183673469</v>
       </c>
     </row>
   </sheetData>
